--- a/Table/Table_xls/w物品合成表.xlsx
+++ b/Table/Table_xls/w物品合成表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442">
   <si>
     <t>ID</t>
   </si>
@@ -1297,37 +1297,37 @@
     <t>150级★锤子</t>
   </si>
   <si>
-    <t>160级★剑</t>
+    <t>神器★擒龙</t>
   </si>
   <si>
     <t>8160101</t>
   </si>
   <si>
-    <t>160级★枪</t>
+    <t>神器★弑皇</t>
   </si>
   <si>
     <t>8160102</t>
   </si>
   <si>
-    <t>160级★斧</t>
+    <t>神器★裂天</t>
   </si>
   <si>
     <t>8160103</t>
   </si>
   <si>
-    <t>160级★扇</t>
+    <t>神器★星瀚</t>
   </si>
   <si>
     <t>8160104</t>
   </si>
   <si>
-    <t>160级★棒</t>
+    <t>神器★醍醐</t>
   </si>
   <si>
     <t>8160105</t>
   </si>
   <si>
-    <t>160级★爪</t>
+    <t>神器★离钩</t>
   </si>
   <si>
     <t>8160106</t>
@@ -1336,76 +1336,415 @@
     <t>8160107</t>
   </si>
   <si>
-    <t>160级★镰</t>
-  </si>
-  <si>
     <t>8160108</t>
   </si>
   <si>
-    <t>160级★环</t>
+    <t>神器★朝夕</t>
   </si>
   <si>
     <t>8160109</t>
   </si>
   <si>
-    <t>160级★刀</t>
-  </si>
-  <si>
-    <t>8160110</t>
-  </si>
-  <si>
-    <t>8160111</t>
-  </si>
-  <si>
-    <t>8160112</t>
-  </si>
-  <si>
-    <t>160级★锤子</t>
-  </si>
-  <si>
-    <t>8160113</t>
-  </si>
-  <si>
-    <t>混元一气甲</t>
+    <t>混元一气甲★神器</t>
   </si>
   <si>
     <t>8160207</t>
   </si>
   <si>
-    <t>鎏金浣月衣</t>
+    <t>鎏金浣月衣★神器</t>
   </si>
   <si>
     <t>8160208</t>
   </si>
   <si>
-    <t>浑天玄火盔</t>
+    <t>浑天玄火盔★神器</t>
   </si>
   <si>
     <t>8160309</t>
   </si>
   <si>
-    <t>乾元鸣凤冕</t>
+    <t>乾元鸣凤冕★神器</t>
   </si>
   <si>
     <t>8160310</t>
   </si>
   <si>
-    <t>紫霄云芒带</t>
+    <t>落霞陨星坠★神器</t>
   </si>
   <si>
     <t>8160411</t>
   </si>
   <si>
-    <t>落霞陨星坠</t>
+    <t>紫霄云芒带★神器</t>
   </si>
   <si>
     <t>8160512</t>
   </si>
   <si>
-    <t>辟尘分光履</t>
+    <t>辟尘分光履★神器</t>
   </si>
   <si>
     <t>8160613</t>
+  </si>
+  <si>
+    <t>神器+1★擒龙</t>
+  </si>
+  <si>
+    <t>8170101</t>
+  </si>
+  <si>
+    <t>神器+1★弑皇</t>
+  </si>
+  <si>
+    <t>8170102</t>
+  </si>
+  <si>
+    <t>神器+1★裂天</t>
+  </si>
+  <si>
+    <t>8170103</t>
+  </si>
+  <si>
+    <t>神器+1★星瀚</t>
+  </si>
+  <si>
+    <t>8170104</t>
+  </si>
+  <si>
+    <t>神器+1★醍醐</t>
+  </si>
+  <si>
+    <t>8170105</t>
+  </si>
+  <si>
+    <t>神器+1★离钩</t>
+  </si>
+  <si>
+    <t>8170106</t>
+  </si>
+  <si>
+    <t>8170107</t>
+  </si>
+  <si>
+    <t>8170108</t>
+  </si>
+  <si>
+    <t>神器+1★朝夕</t>
+  </si>
+  <si>
+    <t>8170109</t>
+  </si>
+  <si>
+    <t>混元一气甲★神器+1</t>
+  </si>
+  <si>
+    <t>8170207</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★神器+1</t>
+  </si>
+  <si>
+    <t>8170208</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★神器+1</t>
+  </si>
+  <si>
+    <t>8170309</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★神器+1</t>
+  </si>
+  <si>
+    <t>8170310</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★神器+1</t>
+  </si>
+  <si>
+    <t>8170411</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★神器+1</t>
+  </si>
+  <si>
+    <t>8170512</t>
+  </si>
+  <si>
+    <t>辟尘分光履★神器+1</t>
+  </si>
+  <si>
+    <t>8170613</t>
+  </si>
+  <si>
+    <t>神器+2★擒龙</t>
+  </si>
+  <si>
+    <t>8180101</t>
+  </si>
+  <si>
+    <t>神器+2★弑皇</t>
+  </si>
+  <si>
+    <t>8180102</t>
+  </si>
+  <si>
+    <t>神器+2★裂天</t>
+  </si>
+  <si>
+    <t>8180103</t>
+  </si>
+  <si>
+    <t>神器+2★星瀚</t>
+  </si>
+  <si>
+    <t>8180104</t>
+  </si>
+  <si>
+    <t>神器+2★醍醐</t>
+  </si>
+  <si>
+    <t>8180105</t>
+  </si>
+  <si>
+    <t>神器+2★离钩</t>
+  </si>
+  <si>
+    <t>8180106</t>
+  </si>
+  <si>
+    <t>8180107</t>
+  </si>
+  <si>
+    <t>8180108</t>
+  </si>
+  <si>
+    <t>神器+2★朝夕</t>
+  </si>
+  <si>
+    <t>8180109</t>
+  </si>
+  <si>
+    <t>混元一气甲★神器+2</t>
+  </si>
+  <si>
+    <t>8180207</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★神器+2</t>
+  </si>
+  <si>
+    <t>8180208</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★神器+2</t>
+  </si>
+  <si>
+    <t>8180309</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★神器+2</t>
+  </si>
+  <si>
+    <t>8180310</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★神器+2</t>
+  </si>
+  <si>
+    <t>8180411</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★神器+2</t>
+  </si>
+  <si>
+    <t>8180512</t>
+  </si>
+  <si>
+    <t>辟尘分光履★神器+2</t>
+  </si>
+  <si>
+    <t>8180613</t>
+  </si>
+  <si>
+    <t>神器+3★擒龙</t>
+  </si>
+  <si>
+    <t>8190101</t>
+  </si>
+  <si>
+    <t>神器+3★弑皇</t>
+  </si>
+  <si>
+    <t>8190102</t>
+  </si>
+  <si>
+    <t>神器+3★裂天</t>
+  </si>
+  <si>
+    <t>8190103</t>
+  </si>
+  <si>
+    <t>神器+3★星瀚</t>
+  </si>
+  <si>
+    <t>8190104</t>
+  </si>
+  <si>
+    <t>神器+3★醍醐</t>
+  </si>
+  <si>
+    <t>8190105</t>
+  </si>
+  <si>
+    <t>神器+3★离钩</t>
+  </si>
+  <si>
+    <t>8190106</t>
+  </si>
+  <si>
+    <t>8190107</t>
+  </si>
+  <si>
+    <t>8190108</t>
+  </si>
+  <si>
+    <t>神器+3★朝夕</t>
+  </si>
+  <si>
+    <t>8190109</t>
+  </si>
+  <si>
+    <t>混元一气甲★神器+3</t>
+  </si>
+  <si>
+    <t>8190207</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★神器+3</t>
+  </si>
+  <si>
+    <t>8190208</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★神器+3</t>
+  </si>
+  <si>
+    <t>8190309</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★神器+3</t>
+  </si>
+  <si>
+    <t>8190310</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★神器+3</t>
+  </si>
+  <si>
+    <t>8190411</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★神器+3</t>
+  </si>
+  <si>
+    <t>8190512</t>
+  </si>
+  <si>
+    <t>辟尘分光履★神器+3</t>
+  </si>
+  <si>
+    <t>8190613</t>
+  </si>
+  <si>
+    <t>至尊神器★擒龙</t>
+  </si>
+  <si>
+    <t>8200101</t>
+  </si>
+  <si>
+    <t>至尊神器★弑皇</t>
+  </si>
+  <si>
+    <t>8200102</t>
+  </si>
+  <si>
+    <t>至尊神器★裂天</t>
+  </si>
+  <si>
+    <t>8200103</t>
+  </si>
+  <si>
+    <t>至尊神器★星瀚</t>
+  </si>
+  <si>
+    <t>8200104</t>
+  </si>
+  <si>
+    <t>至尊神器★醍醐</t>
+  </si>
+  <si>
+    <t>8200105</t>
+  </si>
+  <si>
+    <t>至尊神器★离钩</t>
+  </si>
+  <si>
+    <t>8200106</t>
+  </si>
+  <si>
+    <t>8200107</t>
+  </si>
+  <si>
+    <t>8200108</t>
+  </si>
+  <si>
+    <t>至尊神器★朝夕</t>
+  </si>
+  <si>
+    <t>8200109</t>
+  </si>
+  <si>
+    <t>混元一气甲★至尊神器</t>
+  </si>
+  <si>
+    <t>8200207</t>
+  </si>
+  <si>
+    <t>鎏金浣月衣★至尊神器</t>
+  </si>
+  <si>
+    <t>8200208</t>
+  </si>
+  <si>
+    <t>浑天玄火盔★至尊神器</t>
+  </si>
+  <si>
+    <t>8200309</t>
+  </si>
+  <si>
+    <t>乾元鸣凤冕★至尊神器</t>
+  </si>
+  <si>
+    <t>8200310</t>
+  </si>
+  <si>
+    <t>落霞陨星坠★至尊神器</t>
+  </si>
+  <si>
+    <t>8200411</t>
+  </si>
+  <si>
+    <t>紫霄云芒带★至尊神器</t>
+  </si>
+  <si>
+    <t>8200512</t>
+  </si>
+  <si>
+    <t>辟尘分光履★至尊神器</t>
+  </si>
+  <si>
+    <t>8200613</t>
   </si>
 </sst>
 </file>
@@ -1414,11 +1753,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1499,10 +1838,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF403F3F"/>
+      <name val="Microsoft Yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF555555"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1514,14 +1866,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,71 +1894,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1634,7 +1919,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,13 +1981,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,25 +2100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,31 +2112,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,7 +2142,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,55 +2166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,7 +2178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,13 +2208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,19 +2232,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,6 +2291,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1985,82 +2386,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2069,152 +2396,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="49" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2295,88 +2622,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2388,9 +2722,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -21136,6 +21468,1770 @@
         <a:xfrm>
           <a:off x="1323975" y="30175200"/>
           <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="文本框 129"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="41624250"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="文本框 130"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="41624250"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="文本框 131"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="44767500"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="文本框 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="44767500"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="文本框 133"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="47891700"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="文本框 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="47891700"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="文本框 135"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="51034950"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="文本框 136"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="51034950"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="文本框 137"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="47901225"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="文本框 138"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="47901225"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="文本框 139"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="51034950"/>
+          <a:ext cx="309880" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="289560"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="文本框 140"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="51034950"/>
+          <a:ext cx="309880" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21599,12 +23695,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AK231"/>
+  <dimension ref="A1:AK291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S211" sqref="S211:S231"/>
+      <selection pane="bottomLeft" activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -28060,10 +30156,10 @@
         <v>208</v>
       </c>
       <c r="O155" s="33"/>
-      <c r="P155" s="52">
+      <c r="P155" s="50">
         <v>194003</v>
       </c>
-      <c r="Q155" s="52">
+      <c r="Q155" s="50">
         <v>194004</v>
       </c>
       <c r="R155" s="38" t="s">
@@ -28117,10 +30213,10 @@
         <v>210</v>
       </c>
       <c r="O156" s="33"/>
-      <c r="P156" s="52">
+      <c r="P156" s="50">
         <v>194003</v>
       </c>
-      <c r="Q156" s="52">
+      <c r="Q156" s="50">
         <v>194004</v>
       </c>
       <c r="R156" s="38" t="s">
@@ -28174,10 +30270,10 @@
         <v>212</v>
       </c>
       <c r="O157" s="33"/>
-      <c r="P157" s="52">
+      <c r="P157" s="50">
         <v>194003</v>
       </c>
-      <c r="Q157" s="52">
+      <c r="Q157" s="50">
         <v>194004</v>
       </c>
       <c r="R157" s="38" t="s">
@@ -28231,10 +30327,10 @@
         <v>214</v>
       </c>
       <c r="O158" s="33"/>
-      <c r="P158" s="52">
+      <c r="P158" s="50">
         <v>194003</v>
       </c>
-      <c r="Q158" s="52">
+      <c r="Q158" s="50">
         <v>194004</v>
       </c>
       <c r="R158" s="38" t="s">
@@ -28288,10 +30384,10 @@
         <v>216</v>
       </c>
       <c r="O159" s="33"/>
-      <c r="P159" s="52">
+      <c r="P159" s="50">
         <v>194003</v>
       </c>
-      <c r="Q159" s="52">
+      <c r="Q159" s="50">
         <v>194004</v>
       </c>
       <c r="R159" s="38" t="s">
@@ -28345,10 +30441,10 @@
         <v>218</v>
       </c>
       <c r="O160" s="33"/>
-      <c r="P160" s="52">
+      <c r="P160" s="50">
         <v>194003</v>
       </c>
-      <c r="Q160" s="52">
+      <c r="Q160" s="50">
         <v>194004</v>
       </c>
       <c r="R160" s="38" t="s">
@@ -28402,10 +30498,10 @@
         <v>220</v>
       </c>
       <c r="O161" s="33"/>
-      <c r="P161" s="52">
+      <c r="P161" s="50">
         <v>194003</v>
       </c>
-      <c r="Q161" s="52">
+      <c r="Q161" s="50">
         <v>194004</v>
       </c>
       <c r="R161" s="38" t="s">
@@ -28459,10 +30555,10 @@
         <v>222</v>
       </c>
       <c r="O162" s="33"/>
-      <c r="P162" s="52">
+      <c r="P162" s="50">
         <v>194003</v>
       </c>
-      <c r="Q162" s="52">
+      <c r="Q162" s="50">
         <v>194004</v>
       </c>
       <c r="R162" s="38" t="s">
@@ -28516,10 +30612,10 @@
         <v>224</v>
       </c>
       <c r="O163" s="33"/>
-      <c r="P163" s="52">
+      <c r="P163" s="50">
         <v>194003</v>
       </c>
-      <c r="Q163" s="52">
+      <c r="Q163" s="50">
         <v>194004</v>
       </c>
       <c r="R163" s="38" t="s">
@@ -28573,10 +30669,10 @@
         <v>226</v>
       </c>
       <c r="O164" s="33"/>
-      <c r="P164" s="52">
+      <c r="P164" s="50">
         <v>194003</v>
       </c>
-      <c r="Q164" s="52">
+      <c r="Q164" s="50">
         <v>194004</v>
       </c>
       <c r="R164" s="38" t="s">
@@ -28630,10 +30726,10 @@
         <v>228</v>
       </c>
       <c r="O165" s="33"/>
-      <c r="P165" s="52">
+      <c r="P165" s="50">
         <v>194003</v>
       </c>
-      <c r="Q165" s="52">
+      <c r="Q165" s="50">
         <v>194004</v>
       </c>
       <c r="R165" s="38" t="s">
@@ -28687,10 +30783,10 @@
         <v>230</v>
       </c>
       <c r="O166" s="33"/>
-      <c r="P166" s="52">
+      <c r="P166" s="50">
         <v>194003</v>
       </c>
-      <c r="Q166" s="52">
+      <c r="Q166" s="50">
         <v>194004</v>
       </c>
       <c r="R166" s="38" t="s">
@@ -28744,10 +30840,10 @@
         <v>232</v>
       </c>
       <c r="O167" s="33"/>
-      <c r="P167" s="52">
+      <c r="P167" s="50">
         <v>194003</v>
       </c>
-      <c r="Q167" s="52">
+      <c r="Q167" s="50">
         <v>194004</v>
       </c>
       <c r="R167" s="38" t="s">
@@ -28801,10 +30897,10 @@
         <v>234</v>
       </c>
       <c r="O168" s="33"/>
-      <c r="P168" s="52">
+      <c r="P168" s="50">
         <v>194003</v>
       </c>
-      <c r="Q168" s="52">
+      <c r="Q168" s="50">
         <v>194004</v>
       </c>
       <c r="R168" s="38" t="s">
@@ -28858,10 +30954,10 @@
         <v>236</v>
       </c>
       <c r="O169" s="33"/>
-      <c r="P169" s="52">
+      <c r="P169" s="50">
         <v>194003</v>
       </c>
-      <c r="Q169" s="52">
+      <c r="Q169" s="50">
         <v>194004</v>
       </c>
       <c r="R169" s="38" t="s">
@@ -28915,10 +31011,10 @@
         <v>238</v>
       </c>
       <c r="O170" s="33"/>
-      <c r="P170" s="52">
+      <c r="P170" s="50">
         <v>194003</v>
       </c>
-      <c r="Q170" s="52">
+      <c r="Q170" s="50">
         <v>194004</v>
       </c>
       <c r="R170" s="38" t="s">
@@ -28972,10 +31068,10 @@
         <v>240</v>
       </c>
       <c r="O171" s="33"/>
-      <c r="P171" s="52">
+      <c r="P171" s="50">
         <v>194003</v>
       </c>
-      <c r="Q171" s="52">
+      <c r="Q171" s="50">
         <v>194004</v>
       </c>
       <c r="R171" s="38" t="s">
@@ -29029,10 +31125,10 @@
         <v>242</v>
       </c>
       <c r="O172" s="33"/>
-      <c r="P172" s="52">
+      <c r="P172" s="50">
         <v>194003</v>
       </c>
-      <c r="Q172" s="52">
+      <c r="Q172" s="50">
         <v>194004</v>
       </c>
       <c r="R172" s="38" t="s">
@@ -29086,10 +31182,10 @@
         <v>244</v>
       </c>
       <c r="O173" s="33"/>
-      <c r="P173" s="52">
+      <c r="P173" s="50">
         <v>194003</v>
       </c>
-      <c r="Q173" s="52">
+      <c r="Q173" s="50">
         <v>194004</v>
       </c>
       <c r="R173" s="38" t="s">
@@ -29143,10 +31239,10 @@
         <v>246</v>
       </c>
       <c r="O174" s="33"/>
-      <c r="P174" s="52">
+      <c r="P174" s="50">
         <v>194003</v>
       </c>
-      <c r="Q174" s="52">
+      <c r="Q174" s="50">
         <v>194004</v>
       </c>
       <c r="R174" s="38" t="s">
@@ -29200,10 +31296,10 @@
         <v>248</v>
       </c>
       <c r="O175" s="33"/>
-      <c r="P175" s="52">
+      <c r="P175" s="50">
         <v>194003</v>
       </c>
-      <c r="Q175" s="52">
+      <c r="Q175" s="50">
         <v>194004</v>
       </c>
       <c r="R175" s="38" t="s">
@@ -29257,10 +31353,10 @@
         <v>250</v>
       </c>
       <c r="O176" s="33"/>
-      <c r="P176" s="52">
+      <c r="P176" s="50">
         <v>194003</v>
       </c>
-      <c r="Q176" s="52">
+      <c r="Q176" s="50">
         <v>194004</v>
       </c>
       <c r="R176" s="38" t="s">
@@ -29314,10 +31410,10 @@
         <v>252</v>
       </c>
       <c r="O177" s="33"/>
-      <c r="P177" s="52">
+      <c r="P177" s="50">
         <v>194003</v>
       </c>
-      <c r="Q177" s="52">
+      <c r="Q177" s="50">
         <v>194004</v>
       </c>
       <c r="R177" s="38" t="s">
@@ -29371,10 +31467,10 @@
         <v>254</v>
       </c>
       <c r="O178" s="33"/>
-      <c r="P178" s="52">
+      <c r="P178" s="50">
         <v>194003</v>
       </c>
-      <c r="Q178" s="52">
+      <c r="Q178" s="50">
         <v>194004</v>
       </c>
       <c r="R178" s="38" t="s">
@@ -29421,10 +31517,10 @@
       <c r="N179" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P179" s="52">
+      <c r="P179" s="50">
         <v>194033</v>
       </c>
-      <c r="Q179" s="52">
+      <c r="Q179" s="50">
         <v>194034</v>
       </c>
       <c r="R179" s="7" t="s">
@@ -29453,10 +31549,10 @@
       <c r="N180" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P180" s="52">
+      <c r="P180" s="50">
         <v>194033</v>
       </c>
-      <c r="Q180" s="52">
+      <c r="Q180" s="50">
         <v>194034</v>
       </c>
       <c r="R180" s="7" t="s">
@@ -29485,10 +31581,10 @@
       <c r="N181" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P181" s="52">
+      <c r="P181" s="50">
         <v>194033</v>
       </c>
-      <c r="Q181" s="52">
+      <c r="Q181" s="50">
         <v>194034</v>
       </c>
       <c r="R181" s="7" t="s">
@@ -29517,10 +31613,10 @@
       <c r="N182" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P182" s="52">
+      <c r="P182" s="50">
         <v>194033</v>
       </c>
-      <c r="Q182" s="52">
+      <c r="Q182" s="50">
         <v>194034</v>
       </c>
       <c r="R182" s="7" t="s">
@@ -29549,10 +31645,10 @@
       <c r="N183" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="P183" s="52">
+      <c r="P183" s="50">
         <v>194033</v>
       </c>
-      <c r="Q183" s="52">
+      <c r="Q183" s="50">
         <v>194034</v>
       </c>
       <c r="R183" s="7" t="s">
@@ -29581,10 +31677,10 @@
       <c r="N184" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P184" s="52">
+      <c r="P184" s="50">
         <v>194033</v>
       </c>
-      <c r="Q184" s="52">
+      <c r="Q184" s="50">
         <v>194034</v>
       </c>
       <c r="R184" s="7" t="s">
@@ -29613,10 +31709,10 @@
       <c r="N185" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P185" s="52">
+      <c r="P185" s="50">
         <v>194033</v>
       </c>
-      <c r="Q185" s="52">
+      <c r="Q185" s="50">
         <v>194034</v>
       </c>
       <c r="R185" s="7" t="s">
@@ -29645,10 +31741,10 @@
       <c r="N186" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P186" s="52">
+      <c r="P186" s="50">
         <v>194033</v>
       </c>
-      <c r="Q186" s="52">
+      <c r="Q186" s="50">
         <v>194034</v>
       </c>
       <c r="R186" s="7" t="s">
@@ -29668,22 +31764,22 @@
       <c r="C187" s="42">
         <v>1</v>
       </c>
-      <c r="D187" s="44">
+      <c r="D187" s="6">
         <v>340438</v>
       </c>
       <c r="E187">
         <v>99</v>
       </c>
-      <c r="N187" s="53">
+      <c r="N187" s="51">
         <v>310300</v>
       </c>
-      <c r="P187" s="52">
+      <c r="P187" s="50">
         <v>194032</v>
       </c>
-      <c r="Q187" s="52">
+      <c r="Q187" s="50">
         <v>194031</v>
       </c>
-      <c r="R187" s="53">
+      <c r="R187" s="51">
         <v>310300</v>
       </c>
       <c r="S187" s="38" t="s">
@@ -29706,22 +31802,22 @@
       <c r="E188" s="13">
         <v>50</v>
       </c>
-      <c r="F188" s="45">
+      <c r="F188" s="44">
         <v>9140110</v>
       </c>
       <c r="G188" s="13">
         <v>1</v>
       </c>
-      <c r="N188" s="45">
+      <c r="N188" s="44">
         <v>9140110</v>
       </c>
-      <c r="P188" s="52">
+      <c r="P188" s="50">
         <v>194035</v>
       </c>
-      <c r="Q188" s="52">
+      <c r="Q188" s="50">
         <v>194036</v>
       </c>
-      <c r="R188" s="45">
+      <c r="R188" s="44">
         <v>9140110</v>
       </c>
       <c r="S188" s="21" t="s">
@@ -29744,22 +31840,22 @@
       <c r="E189" s="13">
         <v>50</v>
       </c>
-      <c r="F189" s="45">
+      <c r="F189" s="44">
         <v>9140111</v>
       </c>
       <c r="G189" s="13">
         <v>1</v>
       </c>
-      <c r="N189" s="45">
+      <c r="N189" s="44">
         <v>9140111</v>
       </c>
-      <c r="P189" s="52">
+      <c r="P189" s="50">
         <v>194035</v>
       </c>
-      <c r="Q189" s="52">
+      <c r="Q189" s="50">
         <v>194036</v>
       </c>
-      <c r="R189" s="45">
+      <c r="R189" s="44">
         <v>9140111</v>
       </c>
       <c r="S189" s="21" t="s">
@@ -29782,22 +31878,22 @@
       <c r="E190" s="13">
         <v>50</v>
       </c>
-      <c r="F190" s="45">
+      <c r="F190" s="44">
         <v>9140112</v>
       </c>
       <c r="G190" s="13">
         <v>1</v>
       </c>
-      <c r="N190" s="45">
+      <c r="N190" s="44">
         <v>9140112</v>
       </c>
-      <c r="P190" s="52">
+      <c r="P190" s="50">
         <v>194035</v>
       </c>
-      <c r="Q190" s="52">
+      <c r="Q190" s="50">
         <v>194036</v>
       </c>
-      <c r="R190" s="45">
+      <c r="R190" s="44">
         <v>9140112</v>
       </c>
       <c r="S190" s="21" t="s">
@@ -29820,22 +31916,22 @@
       <c r="E191" s="13">
         <v>50</v>
       </c>
-      <c r="F191" s="45">
+      <c r="F191" s="44">
         <v>9140113</v>
       </c>
       <c r="G191" s="13">
         <v>1</v>
       </c>
-      <c r="N191" s="45">
+      <c r="N191" s="44">
         <v>9140113</v>
       </c>
-      <c r="P191" s="52">
+      <c r="P191" s="50">
         <v>194035</v>
       </c>
-      <c r="Q191" s="52">
+      <c r="Q191" s="50">
         <v>194036</v>
       </c>
-      <c r="R191" s="45">
+      <c r="R191" s="44">
         <v>9140113</v>
       </c>
       <c r="S191" s="21" t="s">
@@ -29843,277 +31939,275 @@
       </c>
     </row>
     <row r="192" s="4" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A192" s="46">
+      <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192" s="47" t="s">
+      <c r="B192" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="C192" s="48">
-        <v>1</v>
-      </c>
-      <c r="D192" s="49" t="s">
+      <c r="C192" s="46">
+        <v>1</v>
+      </c>
+      <c r="D192" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E192" s="50">
+      <c r="E192" s="48">
         <v>15</v>
       </c>
-      <c r="F192" s="51">
+      <c r="F192" s="49">
         <v>8110110</v>
       </c>
-      <c r="G192" s="50">
-        <v>1</v>
-      </c>
-      <c r="N192" s="51">
+      <c r="G192" s="48">
+        <v>1</v>
+      </c>
+      <c r="N192" s="49">
         <v>8110110</v>
       </c>
-      <c r="O192" s="54"/>
+      <c r="O192" s="52"/>
       <c r="P192" s="4">
         <v>194003</v>
       </c>
       <c r="Q192" s="4">
         <v>194004</v>
       </c>
-      <c r="R192" s="51">
+      <c r="R192" s="49">
         <v>8110110</v>
       </c>
-      <c r="S192" s="55" t="s">
+      <c r="S192" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="T192" s="56"/>
-      <c r="U192" s="56"/>
-      <c r="V192" s="56"/>
-      <c r="W192" s="56"/>
-      <c r="X192" s="56"/>
-      <c r="Y192" s="56"/>
-      <c r="Z192" s="56"/>
-      <c r="AA192" s="56"/>
-      <c r="AB192" s="56"/>
-      <c r="AC192" s="56"/>
-      <c r="AD192" s="56"/>
-      <c r="AE192" s="56"/>
-      <c r="AF192" s="56"/>
-      <c r="AG192" s="56"/>
-      <c r="AH192" s="56"/>
-      <c r="AI192" s="56"/>
-      <c r="AJ192" s="56"/>
-      <c r="AK192" s="56"/>
+      <c r="T192" s="53"/>
+      <c r="U192" s="53"/>
+      <c r="V192" s="53"/>
+      <c r="W192" s="53"/>
+      <c r="X192" s="53"/>
+      <c r="Y192" s="53"/>
+      <c r="Z192" s="53"/>
+      <c r="AA192" s="53"/>
+      <c r="AB192" s="53"/>
+      <c r="AC192" s="53"/>
+      <c r="AD192" s="53"/>
+      <c r="AE192" s="53"/>
+      <c r="AF192" s="53"/>
+      <c r="AG192" s="53"/>
+      <c r="AH192" s="53"/>
+      <c r="AI192" s="53"/>
+      <c r="AJ192" s="53"/>
+      <c r="AK192" s="53"/>
     </row>
     <row r="193" s="4" customFormat="1" ht="15" spans="1:37">
-      <c r="A193" s="46">
+      <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="57" t="s">
+      <c r="B193" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="C193" s="48">
-        <v>1</v>
-      </c>
-      <c r="D193" s="49" t="s">
+      <c r="C193" s="46">
+        <v>1</v>
+      </c>
+      <c r="D193" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E193" s="50">
+      <c r="E193" s="48">
         <v>15</v>
       </c>
-      <c r="F193" s="51">
+      <c r="F193" s="49">
         <v>8110111</v>
       </c>
-      <c r="G193" s="50">
-        <v>1</v>
-      </c>
-      <c r="N193" s="51">
+      <c r="G193" s="48">
+        <v>1</v>
+      </c>
+      <c r="N193" s="49">
         <v>8110111</v>
       </c>
-      <c r="O193" s="54"/>
+      <c r="O193" s="52"/>
       <c r="P193" s="4">
         <v>194003</v>
       </c>
       <c r="Q193" s="4">
         <v>194004</v>
       </c>
-      <c r="R193" s="51">
+      <c r="R193" s="49">
         <v>8110111</v>
       </c>
-      <c r="S193" s="55" t="s">
+      <c r="S193" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="T193" s="56"/>
-      <c r="U193" s="56"/>
-      <c r="V193" s="56"/>
-      <c r="W193" s="56"/>
-      <c r="X193" s="56"/>
-      <c r="Y193" s="56"/>
-      <c r="Z193" s="56"/>
-      <c r="AA193" s="56"/>
-      <c r="AB193" s="56"/>
-      <c r="AC193" s="56"/>
-      <c r="AD193" s="56"/>
-      <c r="AE193" s="56"/>
-      <c r="AF193" s="56"/>
-      <c r="AG193" s="56"/>
-      <c r="AH193" s="56"/>
-      <c r="AI193" s="56"/>
-      <c r="AJ193" s="56"/>
-      <c r="AK193" s="56"/>
+      <c r="T193" s="53"/>
+      <c r="U193" s="53"/>
+      <c r="V193" s="53"/>
+      <c r="W193" s="53"/>
+      <c r="X193" s="53"/>
+      <c r="Y193" s="53"/>
+      <c r="Z193" s="53"/>
+      <c r="AA193" s="53"/>
+      <c r="AB193" s="53"/>
+      <c r="AC193" s="53"/>
+      <c r="AD193" s="53"/>
+      <c r="AE193" s="53"/>
+      <c r="AF193" s="53"/>
+      <c r="AG193" s="53"/>
+      <c r="AH193" s="53"/>
+      <c r="AI193" s="53"/>
+      <c r="AJ193" s="53"/>
+      <c r="AK193" s="53"/>
     </row>
     <row r="194" s="4" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A194" s="46">
+      <c r="A194" s="4">
         <v>193</v>
       </c>
-      <c r="B194" s="58" t="s">
+      <c r="B194" s="55" t="s">
         <v>277</v>
       </c>
       <c r="C194" s="4">
         <v>1</v>
       </c>
-      <c r="D194" s="59">
+      <c r="D194" s="52">
         <v>340141</v>
       </c>
-      <c r="E194" s="50">
+      <c r="E194" s="48">
         <v>15</v>
       </c>
-      <c r="F194" s="51">
+      <c r="F194" s="49">
         <v>8110112</v>
       </c>
-      <c r="G194" s="54">
-        <v>1</v>
-      </c>
-      <c r="H194" s="54"/>
-      <c r="I194" s="54"/>
-      <c r="M194" s="86"/>
-      <c r="N194" s="51">
+      <c r="G194" s="52">
+        <v>1</v>
+      </c>
+      <c r="H194" s="52"/>
+      <c r="I194" s="52"/>
+      <c r="M194" s="87"/>
+      <c r="N194" s="49">
         <v>8110112</v>
       </c>
-      <c r="O194" s="86"/>
+      <c r="O194" s="87"/>
       <c r="P194" s="4">
         <v>194003</v>
       </c>
       <c r="Q194" s="4">
         <v>194004</v>
       </c>
-      <c r="R194" s="51">
+      <c r="R194" s="49">
         <v>8110112</v>
       </c>
-      <c r="S194" s="56" t="s">
+      <c r="S194" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="T194" s="56"/>
-      <c r="U194" s="56"/>
-      <c r="V194" s="56"/>
-      <c r="W194" s="56"/>
-      <c r="X194" s="56"/>
-      <c r="Y194" s="56"/>
-      <c r="Z194" s="56"/>
-      <c r="AA194" s="56"/>
-      <c r="AB194" s="56"/>
-      <c r="AC194" s="56"/>
-      <c r="AD194" s="56"/>
-      <c r="AE194" s="56"/>
-      <c r="AF194" s="56"/>
-      <c r="AG194" s="56"/>
-      <c r="AH194" s="56"/>
-      <c r="AI194" s="56"/>
-      <c r="AJ194" s="56"/>
-      <c r="AK194" s="56"/>
+      <c r="T194" s="53"/>
+      <c r="U194" s="53"/>
+      <c r="V194" s="53"/>
+      <c r="W194" s="53"/>
+      <c r="X194" s="53"/>
+      <c r="Y194" s="53"/>
+      <c r="Z194" s="53"/>
+      <c r="AA194" s="53"/>
+      <c r="AB194" s="53"/>
+      <c r="AC194" s="53"/>
+      <c r="AD194" s="53"/>
+      <c r="AE194" s="53"/>
+      <c r="AF194" s="53"/>
+      <c r="AG194" s="53"/>
+      <c r="AH194" s="53"/>
+      <c r="AI194" s="53"/>
+      <c r="AJ194" s="53"/>
+      <c r="AK194" s="53"/>
     </row>
     <row r="195" s="4" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A195" s="46">
+      <c r="A195" s="4">
         <v>194</v>
       </c>
-      <c r="B195" s="58" t="s">
+      <c r="B195" s="55" t="s">
         <v>279</v>
       </c>
       <c r="C195" s="4">
         <v>1</v>
       </c>
-      <c r="D195" s="59">
+      <c r="D195" s="52">
         <v>340141</v>
       </c>
-      <c r="E195" s="50">
+      <c r="E195" s="48">
         <v>15</v>
       </c>
-      <c r="F195" s="51">
+      <c r="F195" s="49">
         <v>8110113</v>
       </c>
-      <c r="G195" s="54">
-        <v>1</v>
-      </c>
-      <c r="H195" s="54"/>
-      <c r="I195" s="54"/>
-      <c r="M195" s="86"/>
-      <c r="N195" s="51">
+      <c r="G195" s="52">
+        <v>1</v>
+      </c>
+      <c r="H195" s="52"/>
+      <c r="I195" s="52"/>
+      <c r="M195" s="87"/>
+      <c r="N195" s="49">
         <v>8110113</v>
       </c>
-      <c r="O195" s="86"/>
+      <c r="O195" s="87"/>
       <c r="P195" s="4">
         <v>194003</v>
       </c>
       <c r="Q195" s="4">
         <v>194004</v>
       </c>
-      <c r="R195" s="51">
+      <c r="R195" s="49">
         <v>8110113</v>
       </c>
-      <c r="S195" s="56" t="s">
+      <c r="S195" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="T195" s="56"/>
-      <c r="U195" s="56"/>
-      <c r="V195" s="56"/>
-      <c r="W195" s="56"/>
-      <c r="X195" s="56"/>
-      <c r="Y195" s="56"/>
-      <c r="Z195" s="56"/>
-      <c r="AA195" s="56"/>
-      <c r="AB195" s="56"/>
-      <c r="AC195" s="56"/>
-      <c r="AD195" s="56"/>
-      <c r="AE195" s="56"/>
-      <c r="AF195" s="56"/>
-      <c r="AG195" s="56"/>
-      <c r="AH195" s="56"/>
-      <c r="AI195" s="56"/>
-      <c r="AJ195" s="56"/>
-      <c r="AK195" s="56"/>
+      <c r="T195" s="53"/>
+      <c r="U195" s="53"/>
+      <c r="V195" s="53"/>
+      <c r="W195" s="53"/>
+      <c r="X195" s="53"/>
+      <c r="Y195" s="53"/>
+      <c r="Z195" s="53"/>
+      <c r="AA195" s="53"/>
+      <c r="AB195" s="53"/>
+      <c r="AC195" s="53"/>
+      <c r="AD195" s="53"/>
+      <c r="AE195" s="53"/>
+      <c r="AF195" s="53"/>
+      <c r="AG195" s="53"/>
+      <c r="AH195" s="53"/>
+      <c r="AI195" s="53"/>
+      <c r="AJ195" s="53"/>
+      <c r="AK195" s="53"/>
     </row>
     <row r="196" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A196" s="60">
+      <c r="A196" s="5">
         <v>195</v>
       </c>
-      <c r="B196" s="61" t="s">
+      <c r="B196" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="C196" s="62">
-        <v>1</v>
-      </c>
-      <c r="D196" s="63" t="s">
+      <c r="C196" s="57">
+        <v>1</v>
+      </c>
+      <c r="D196" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E196" s="64">
+      <c r="E196" s="59">
         <v>20</v>
       </c>
-      <c r="F196" s="65">
+      <c r="F196" s="60">
         <v>8120110</v>
       </c>
-      <c r="G196" s="64">
-        <v>1</v>
-      </c>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="N196" s="65">
+      <c r="G196" s="59">
+        <v>1</v>
+      </c>
+      <c r="N196" s="60">
         <v>8120110</v>
       </c>
-      <c r="O196" s="69"/>
+      <c r="O196" s="63"/>
       <c r="P196" s="5">
         <v>194003</v>
       </c>
       <c r="Q196" s="5">
         <v>194004</v>
       </c>
-      <c r="R196" s="65">
+      <c r="R196" s="60">
         <v>8120110</v>
       </c>
-      <c r="S196" s="89" t="s">
+      <c r="S196" s="58" t="s">
         <v>39</v>
       </c>
       <c r="T196" s="90"/>
@@ -30136,41 +32230,41 @@
       <c r="AK196" s="90"/>
     </row>
     <row r="197" s="5" customFormat="1" ht="15" spans="1:37">
-      <c r="A197" s="60">
+      <c r="A197" s="5">
         <v>196</v>
       </c>
-      <c r="B197" s="66" t="s">
+      <c r="B197" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C197" s="62">
-        <v>1</v>
-      </c>
-      <c r="D197" s="63" t="s">
+      <c r="C197" s="57">
+        <v>1</v>
+      </c>
+      <c r="D197" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E197" s="64">
+      <c r="E197" s="59">
         <v>20</v>
       </c>
-      <c r="F197" s="65">
+      <c r="F197" s="60">
         <v>8120111</v>
       </c>
-      <c r="G197" s="64">
-        <v>1</v>
-      </c>
-      <c r="N197" s="65">
+      <c r="G197" s="59">
+        <v>1</v>
+      </c>
+      <c r="N197" s="60">
         <v>8120111</v>
       </c>
-      <c r="O197" s="69"/>
+      <c r="O197" s="63"/>
       <c r="P197" s="5">
         <v>194003</v>
       </c>
       <c r="Q197" s="5">
         <v>194004</v>
       </c>
-      <c r="R197" s="65">
+      <c r="R197" s="60">
         <v>8120111</v>
       </c>
-      <c r="S197" s="89" t="s">
+      <c r="S197" s="58" t="s">
         <v>39</v>
       </c>
       <c r="T197" s="90"/>
@@ -30193,41 +32287,41 @@
       <c r="AK197" s="90"/>
     </row>
     <row r="198" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A198" s="60">
+      <c r="A198" s="5">
         <v>197</v>
       </c>
-      <c r="B198" s="67" t="s">
+      <c r="B198" s="62" t="s">
         <v>280</v>
       </c>
       <c r="C198" s="5">
         <v>1</v>
       </c>
-      <c r="D198" s="68">
+      <c r="D198" s="63">
         <v>340141</v>
       </c>
-      <c r="E198" s="64">
+      <c r="E198" s="59">
         <v>20</v>
       </c>
-      <c r="F198" s="65">
+      <c r="F198" s="60">
         <v>8120112</v>
       </c>
-      <c r="G198" s="69">
-        <v>1</v>
-      </c>
-      <c r="H198" s="69"/>
-      <c r="I198" s="69"/>
-      <c r="M198" s="87"/>
-      <c r="N198" s="65">
+      <c r="G198" s="63">
+        <v>1</v>
+      </c>
+      <c r="H198" s="63"/>
+      <c r="I198" s="63"/>
+      <c r="M198" s="88"/>
+      <c r="N198" s="60">
         <v>8120112</v>
       </c>
-      <c r="O198" s="87"/>
+      <c r="O198" s="88"/>
       <c r="P198" s="5">
         <v>194003</v>
       </c>
       <c r="Q198" s="5">
         <v>194004</v>
       </c>
-      <c r="R198" s="65">
+      <c r="R198" s="60">
         <v>8120112</v>
       </c>
       <c r="S198" s="90" t="s">
@@ -30253,41 +32347,41 @@
       <c r="AK198" s="90"/>
     </row>
     <row r="199" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A199" s="60">
+      <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="67" t="s">
+      <c r="B199" s="62" t="s">
         <v>282</v>
       </c>
       <c r="C199" s="5">
         <v>1</v>
       </c>
-      <c r="D199" s="68">
+      <c r="D199" s="63">
         <v>340141</v>
       </c>
-      <c r="E199" s="64">
+      <c r="E199" s="59">
         <v>20</v>
       </c>
-      <c r="F199" s="65">
+      <c r="F199" s="60">
         <v>8120113</v>
       </c>
-      <c r="G199" s="69">
-        <v>1</v>
-      </c>
-      <c r="H199" s="69"/>
-      <c r="I199" s="69"/>
-      <c r="M199" s="87"/>
-      <c r="N199" s="65">
+      <c r="G199" s="63">
+        <v>1</v>
+      </c>
+      <c r="H199" s="63"/>
+      <c r="I199" s="63"/>
+      <c r="M199" s="88"/>
+      <c r="N199" s="60">
         <v>8120113</v>
       </c>
-      <c r="O199" s="87"/>
+      <c r="O199" s="88"/>
       <c r="P199" s="5">
         <v>194003</v>
       </c>
       <c r="Q199" s="5">
         <v>194004</v>
       </c>
-      <c r="R199" s="65">
+      <c r="R199" s="60">
         <v>8120113</v>
       </c>
       <c r="S199" s="90" t="s">
@@ -30313,277 +32407,275 @@
       <c r="AK199" s="90"/>
     </row>
     <row r="200" s="4" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A200" s="46">
+      <c r="A200" s="4">
         <v>199</v>
       </c>
-      <c r="B200" s="70" t="s">
+      <c r="B200" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C200" s="48">
-        <v>1</v>
-      </c>
-      <c r="D200" s="49" t="s">
+      <c r="C200" s="46">
+        <v>1</v>
+      </c>
+      <c r="D200" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E200" s="50">
+      <c r="E200" s="48">
         <v>25</v>
       </c>
-      <c r="F200" s="71">
+      <c r="F200" s="65">
         <v>8130110</v>
       </c>
-      <c r="G200" s="50">
-        <v>1</v>
-      </c>
-      <c r="N200" s="71">
+      <c r="G200" s="48">
+        <v>1</v>
+      </c>
+      <c r="N200" s="65">
         <v>8130110</v>
       </c>
-      <c r="O200" s="54"/>
+      <c r="O200" s="52"/>
       <c r="P200" s="4">
         <v>194003</v>
       </c>
       <c r="Q200" s="4">
         <v>194004</v>
       </c>
-      <c r="R200" s="71">
+      <c r="R200" s="65">
         <v>8130110</v>
       </c>
-      <c r="S200" s="55" t="s">
+      <c r="S200" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="T200" s="56"/>
-      <c r="U200" s="56"/>
-      <c r="V200" s="56"/>
-      <c r="W200" s="56"/>
-      <c r="X200" s="56"/>
-      <c r="Y200" s="56"/>
-      <c r="Z200" s="56"/>
-      <c r="AA200" s="56"/>
-      <c r="AB200" s="56"/>
-      <c r="AC200" s="56"/>
-      <c r="AD200" s="56"/>
-      <c r="AE200" s="56"/>
-      <c r="AF200" s="56"/>
-      <c r="AG200" s="56"/>
-      <c r="AH200" s="56"/>
-      <c r="AI200" s="56"/>
-      <c r="AJ200" s="56"/>
-      <c r="AK200" s="56"/>
+      <c r="T200" s="53"/>
+      <c r="U200" s="53"/>
+      <c r="V200" s="53"/>
+      <c r="W200" s="53"/>
+      <c r="X200" s="53"/>
+      <c r="Y200" s="53"/>
+      <c r="Z200" s="53"/>
+      <c r="AA200" s="53"/>
+      <c r="AB200" s="53"/>
+      <c r="AC200" s="53"/>
+      <c r="AD200" s="53"/>
+      <c r="AE200" s="53"/>
+      <c r="AF200" s="53"/>
+      <c r="AG200" s="53"/>
+      <c r="AH200" s="53"/>
+      <c r="AI200" s="53"/>
+      <c r="AJ200" s="53"/>
+      <c r="AK200" s="53"/>
     </row>
     <row r="201" s="4" customFormat="1" ht="15" spans="1:37">
-      <c r="A201" s="46">
+      <c r="A201" s="4">
         <v>200</v>
       </c>
-      <c r="B201" s="72" t="s">
+      <c r="B201" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="C201" s="48">
-        <v>1</v>
-      </c>
-      <c r="D201" s="49" t="s">
+      <c r="C201" s="46">
+        <v>1</v>
+      </c>
+      <c r="D201" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E201" s="50">
+      <c r="E201" s="48">
         <v>25</v>
       </c>
-      <c r="F201" s="71">
+      <c r="F201" s="65">
         <v>8130111</v>
       </c>
-      <c r="G201" s="50">
-        <v>1</v>
-      </c>
-      <c r="N201" s="71">
+      <c r="G201" s="48">
+        <v>1</v>
+      </c>
+      <c r="N201" s="65">
         <v>8130111</v>
       </c>
-      <c r="O201" s="54"/>
+      <c r="O201" s="52"/>
       <c r="P201" s="4">
         <v>194003</v>
       </c>
       <c r="Q201" s="4">
         <v>194004</v>
       </c>
-      <c r="R201" s="71">
+      <c r="R201" s="65">
         <v>8130111</v>
       </c>
-      <c r="S201" s="55" t="s">
+      <c r="S201" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="T201" s="56"/>
-      <c r="U201" s="56"/>
-      <c r="V201" s="56"/>
-      <c r="W201" s="56"/>
-      <c r="X201" s="56"/>
-      <c r="Y201" s="56"/>
-      <c r="Z201" s="56"/>
-      <c r="AA201" s="56"/>
-      <c r="AB201" s="56"/>
-      <c r="AC201" s="56"/>
-      <c r="AD201" s="56"/>
-      <c r="AE201" s="56"/>
-      <c r="AF201" s="56"/>
-      <c r="AG201" s="56"/>
-      <c r="AH201" s="56"/>
-      <c r="AI201" s="56"/>
-      <c r="AJ201" s="56"/>
-      <c r="AK201" s="56"/>
+      <c r="T201" s="53"/>
+      <c r="U201" s="53"/>
+      <c r="V201" s="53"/>
+      <c r="W201" s="53"/>
+      <c r="X201" s="53"/>
+      <c r="Y201" s="53"/>
+      <c r="Z201" s="53"/>
+      <c r="AA201" s="53"/>
+      <c r="AB201" s="53"/>
+      <c r="AC201" s="53"/>
+      <c r="AD201" s="53"/>
+      <c r="AE201" s="53"/>
+      <c r="AF201" s="53"/>
+      <c r="AG201" s="53"/>
+      <c r="AH201" s="53"/>
+      <c r="AI201" s="53"/>
+      <c r="AJ201" s="53"/>
+      <c r="AK201" s="53"/>
     </row>
     <row r="202" s="4" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A202" s="46">
+      <c r="A202" s="4">
         <v>201</v>
       </c>
-      <c r="B202" s="70" t="s">
+      <c r="B202" s="64" t="s">
         <v>283</v>
       </c>
       <c r="C202" s="4">
         <v>1</v>
       </c>
-      <c r="D202" s="59">
+      <c r="D202" s="52">
         <v>340141</v>
       </c>
-      <c r="E202" s="50">
+      <c r="E202" s="48">
         <v>25</v>
       </c>
-      <c r="F202" s="71">
+      <c r="F202" s="65">
         <v>8130112</v>
       </c>
-      <c r="G202" s="54">
-        <v>1</v>
-      </c>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
-      <c r="M202" s="86"/>
-      <c r="N202" s="71">
+      <c r="G202" s="52">
+        <v>1</v>
+      </c>
+      <c r="H202" s="52"/>
+      <c r="I202" s="52"/>
+      <c r="M202" s="87"/>
+      <c r="N202" s="65">
         <v>8130112</v>
       </c>
-      <c r="O202" s="86"/>
+      <c r="O202" s="87"/>
       <c r="P202" s="4">
         <v>194003</v>
       </c>
       <c r="Q202" s="4">
         <v>194004</v>
       </c>
-      <c r="R202" s="71">
+      <c r="R202" s="65">
         <v>8130112</v>
       </c>
-      <c r="S202" s="56" t="s">
+      <c r="S202" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="T202" s="56"/>
-      <c r="U202" s="56"/>
-      <c r="V202" s="56"/>
-      <c r="W202" s="56"/>
-      <c r="X202" s="56"/>
-      <c r="Y202" s="56"/>
-      <c r="Z202" s="56"/>
-      <c r="AA202" s="56"/>
-      <c r="AB202" s="56"/>
-      <c r="AC202" s="56"/>
-      <c r="AD202" s="56"/>
-      <c r="AE202" s="56"/>
-      <c r="AF202" s="56"/>
-      <c r="AG202" s="56"/>
-      <c r="AH202" s="56"/>
-      <c r="AI202" s="56"/>
-      <c r="AJ202" s="56"/>
-      <c r="AK202" s="56"/>
+      <c r="T202" s="53"/>
+      <c r="U202" s="53"/>
+      <c r="V202" s="53"/>
+      <c r="W202" s="53"/>
+      <c r="X202" s="53"/>
+      <c r="Y202" s="53"/>
+      <c r="Z202" s="53"/>
+      <c r="AA202" s="53"/>
+      <c r="AB202" s="53"/>
+      <c r="AC202" s="53"/>
+      <c r="AD202" s="53"/>
+      <c r="AE202" s="53"/>
+      <c r="AF202" s="53"/>
+      <c r="AG202" s="53"/>
+      <c r="AH202" s="53"/>
+      <c r="AI202" s="53"/>
+      <c r="AJ202" s="53"/>
+      <c r="AK202" s="53"/>
     </row>
     <row r="203" s="4" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A203" s="46">
+      <c r="A203" s="4">
         <v>202</v>
       </c>
-      <c r="B203" s="70" t="s">
+      <c r="B203" s="64" t="s">
         <v>285</v>
       </c>
       <c r="C203" s="4">
         <v>1</v>
       </c>
-      <c r="D203" s="59">
+      <c r="D203" s="52">
         <v>340141</v>
       </c>
-      <c r="E203" s="50">
+      <c r="E203" s="48">
         <v>25</v>
       </c>
-      <c r="F203" s="71">
+      <c r="F203" s="65">
         <v>8130113</v>
       </c>
-      <c r="G203" s="54">
-        <v>1</v>
-      </c>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="M203" s="86"/>
-      <c r="N203" s="71">
+      <c r="G203" s="52">
+        <v>1</v>
+      </c>
+      <c r="H203" s="52"/>
+      <c r="I203" s="52"/>
+      <c r="M203" s="87"/>
+      <c r="N203" s="65">
         <v>8130113</v>
       </c>
-      <c r="O203" s="86"/>
+      <c r="O203" s="87"/>
       <c r="P203" s="4">
         <v>194003</v>
       </c>
       <c r="Q203" s="4">
         <v>194004</v>
       </c>
-      <c r="R203" s="71">
+      <c r="R203" s="65">
         <v>8130113</v>
       </c>
-      <c r="S203" s="56" t="s">
+      <c r="S203" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="T203" s="56"/>
-      <c r="U203" s="56"/>
-      <c r="V203" s="56"/>
-      <c r="W203" s="56"/>
-      <c r="X203" s="56"/>
-      <c r="Y203" s="56"/>
-      <c r="Z203" s="56"/>
-      <c r="AA203" s="56"/>
-      <c r="AB203" s="56"/>
-      <c r="AC203" s="56"/>
-      <c r="AD203" s="56"/>
-      <c r="AE203" s="56"/>
-      <c r="AF203" s="56"/>
-      <c r="AG203" s="56"/>
-      <c r="AH203" s="56"/>
-      <c r="AI203" s="56"/>
-      <c r="AJ203" s="56"/>
-      <c r="AK203" s="56"/>
+      <c r="T203" s="53"/>
+      <c r="U203" s="53"/>
+      <c r="V203" s="53"/>
+      <c r="W203" s="53"/>
+      <c r="X203" s="53"/>
+      <c r="Y203" s="53"/>
+      <c r="Z203" s="53"/>
+      <c r="AA203" s="53"/>
+      <c r="AB203" s="53"/>
+      <c r="AC203" s="53"/>
+      <c r="AD203" s="53"/>
+      <c r="AE203" s="53"/>
+      <c r="AF203" s="53"/>
+      <c r="AG203" s="53"/>
+      <c r="AH203" s="53"/>
+      <c r="AI203" s="53"/>
+      <c r="AJ203" s="53"/>
+      <c r="AK203" s="53"/>
     </row>
     <row r="204" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A204" s="60">
+      <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" s="73" t="s">
+      <c r="B204" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="C204" s="62">
-        <v>1</v>
-      </c>
-      <c r="D204" s="63" t="s">
+      <c r="C204" s="57">
+        <v>1</v>
+      </c>
+      <c r="D204" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E204" s="50">
+      <c r="E204" s="48">
         <v>30</v>
       </c>
-      <c r="F204" s="65">
+      <c r="F204" s="60">
         <v>8140110</v>
       </c>
-      <c r="G204" s="64">
-        <v>1</v>
-      </c>
-      <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="N204" s="65">
+      <c r="G204" s="59">
+        <v>1</v>
+      </c>
+      <c r="N204" s="60">
         <v>8140110</v>
       </c>
-      <c r="O204" s="69"/>
+      <c r="O204" s="63"/>
       <c r="P204" s="5">
         <v>194003</v>
       </c>
       <c r="Q204" s="5">
         <v>194004</v>
       </c>
-      <c r="R204" s="65">
+      <c r="R204" s="60">
         <v>8140110</v>
       </c>
-      <c r="S204" s="89" t="s">
+      <c r="S204" s="58" t="s">
         <v>39</v>
       </c>
       <c r="T204" s="90"/>
@@ -30606,41 +32698,41 @@
       <c r="AK204" s="90"/>
     </row>
     <row r="205" s="5" customFormat="1" ht="15" spans="1:37">
-      <c r="A205" s="60">
+      <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="74" t="s">
+      <c r="B205" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="C205" s="62">
-        <v>1</v>
-      </c>
-      <c r="D205" s="63" t="s">
+      <c r="C205" s="57">
+        <v>1</v>
+      </c>
+      <c r="D205" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E205" s="50">
+      <c r="E205" s="48">
         <v>30</v>
       </c>
-      <c r="F205" s="65">
+      <c r="F205" s="60">
         <v>8140111</v>
       </c>
-      <c r="G205" s="64">
-        <v>1</v>
-      </c>
-      <c r="N205" s="65">
+      <c r="G205" s="59">
+        <v>1</v>
+      </c>
+      <c r="N205" s="60">
         <v>8140111</v>
       </c>
-      <c r="O205" s="69"/>
+      <c r="O205" s="63"/>
       <c r="P205" s="5">
         <v>194003</v>
       </c>
       <c r="Q205" s="5">
         <v>194004</v>
       </c>
-      <c r="R205" s="65">
+      <c r="R205" s="60">
         <v>8140111</v>
       </c>
-      <c r="S205" s="89" t="s">
+      <c r="S205" s="58" t="s">
         <v>39</v>
       </c>
       <c r="T205" s="90"/>
@@ -30663,41 +32755,41 @@
       <c r="AK205" s="90"/>
     </row>
     <row r="206" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A206" s="60">
+      <c r="A206" s="5">
         <v>205</v>
       </c>
-      <c r="B206" s="73" t="s">
+      <c r="B206" s="67" t="s">
         <v>286</v>
       </c>
       <c r="C206" s="5">
         <v>1</v>
       </c>
-      <c r="D206" s="68">
+      <c r="D206" s="63">
         <v>340141</v>
       </c>
-      <c r="E206" s="50">
+      <c r="E206" s="48">
         <v>30</v>
       </c>
-      <c r="F206" s="65">
+      <c r="F206" s="60">
         <v>8140112</v>
       </c>
-      <c r="G206" s="69">
-        <v>1</v>
-      </c>
-      <c r="H206" s="69"/>
-      <c r="I206" s="69"/>
-      <c r="M206" s="87"/>
-      <c r="N206" s="65">
+      <c r="G206" s="63">
+        <v>1</v>
+      </c>
+      <c r="H206" s="63"/>
+      <c r="I206" s="63"/>
+      <c r="M206" s="88"/>
+      <c r="N206" s="60">
         <v>8140112</v>
       </c>
-      <c r="O206" s="87"/>
+      <c r="O206" s="88"/>
       <c r="P206" s="5">
         <v>194003</v>
       </c>
       <c r="Q206" s="5">
         <v>194004</v>
       </c>
-      <c r="R206" s="65">
+      <c r="R206" s="60">
         <v>8140112</v>
       </c>
       <c r="S206" s="90" t="s">
@@ -30723,41 +32815,41 @@
       <c r="AK206" s="90"/>
     </row>
     <row r="207" s="5" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A207" s="60">
+      <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="73" t="s">
+      <c r="B207" s="67" t="s">
         <v>288</v>
       </c>
       <c r="C207" s="5">
         <v>1</v>
       </c>
-      <c r="D207" s="68">
+      <c r="D207" s="63">
         <v>340141</v>
       </c>
-      <c r="E207" s="50">
+      <c r="E207" s="48">
         <v>30</v>
       </c>
-      <c r="F207" s="65">
+      <c r="F207" s="60">
         <v>8140113</v>
       </c>
-      <c r="G207" s="69">
-        <v>1</v>
-      </c>
-      <c r="H207" s="69"/>
-      <c r="I207" s="69"/>
-      <c r="M207" s="87"/>
-      <c r="N207" s="65">
+      <c r="G207" s="63">
+        <v>1</v>
+      </c>
+      <c r="H207" s="63"/>
+      <c r="I207" s="63"/>
+      <c r="M207" s="88"/>
+      <c r="N207" s="60">
         <v>8140113</v>
       </c>
-      <c r="O207" s="87"/>
+      <c r="O207" s="88"/>
       <c r="P207" s="5">
         <v>194003</v>
       </c>
       <c r="Q207" s="5">
         <v>194004</v>
       </c>
-      <c r="R207" s="65">
+      <c r="R207" s="60">
         <v>8140113</v>
       </c>
       <c r="S207" s="90" t="s">
@@ -30783,871 +32875,1175 @@
       <c r="AK207" s="90"/>
     </row>
     <row r="208" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A208" s="44">
+      <c r="A208" s="6">
         <v>207</v>
       </c>
-      <c r="B208" s="70" t="s">
+      <c r="B208" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="C208" s="75">
-        <v>1</v>
-      </c>
-      <c r="D208" s="76" t="s">
+      <c r="C208" s="69">
+        <v>1</v>
+      </c>
+      <c r="D208" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E208" s="77">
+      <c r="E208" s="71">
         <v>35</v>
       </c>
-      <c r="F208" s="51">
+      <c r="F208" s="49">
         <v>8150110</v>
       </c>
-      <c r="G208" s="77">
-        <v>1</v>
-      </c>
-      <c r="N208" s="51">
+      <c r="G208" s="71">
+        <v>1</v>
+      </c>
+      <c r="N208" s="49">
         <v>8150110</v>
       </c>
-      <c r="O208" s="79"/>
+      <c r="O208" s="72"/>
       <c r="P208" s="6">
         <v>194003</v>
       </c>
       <c r="Q208" s="6">
         <v>194004</v>
       </c>
-      <c r="R208" s="51">
+      <c r="R208" s="49">
         <v>8150110</v>
       </c>
-      <c r="S208" s="91" t="s">
+      <c r="S208" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="T208" s="92"/>
-      <c r="U208" s="92"/>
-      <c r="V208" s="92"/>
-      <c r="W208" s="92"/>
-      <c r="X208" s="92"/>
-      <c r="Y208" s="92"/>
-      <c r="Z208" s="92"/>
-      <c r="AA208" s="92"/>
-      <c r="AB208" s="92"/>
-      <c r="AC208" s="92"/>
-      <c r="AD208" s="92"/>
-      <c r="AE208" s="92"/>
-      <c r="AF208" s="92"/>
-      <c r="AG208" s="92"/>
-      <c r="AH208" s="92"/>
-      <c r="AI208" s="92"/>
-      <c r="AJ208" s="92"/>
-      <c r="AK208" s="92"/>
+      <c r="T208" s="91"/>
+      <c r="U208" s="91"/>
+      <c r="V208" s="91"/>
+      <c r="W208" s="91"/>
+      <c r="X208" s="91"/>
+      <c r="Y208" s="91"/>
+      <c r="Z208" s="91"/>
+      <c r="AA208" s="91"/>
+      <c r="AB208" s="91"/>
+      <c r="AC208" s="91"/>
+      <c r="AD208" s="91"/>
+      <c r="AE208" s="91"/>
+      <c r="AF208" s="91"/>
+      <c r="AG208" s="91"/>
+      <c r="AH208" s="91"/>
+      <c r="AI208" s="91"/>
+      <c r="AJ208" s="91"/>
+      <c r="AK208" s="91"/>
     </row>
     <row r="209" s="6" customFormat="1" ht="15" spans="1:37">
-      <c r="A209" s="44">
+      <c r="A209" s="6">
         <v>208</v>
       </c>
-      <c r="B209" s="72" t="s">
+      <c r="B209" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="C209" s="75">
-        <v>1</v>
-      </c>
-      <c r="D209" s="76" t="s">
+      <c r="C209" s="69">
+        <v>1</v>
+      </c>
+      <c r="D209" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E209" s="77">
+      <c r="E209" s="71">
         <v>35</v>
       </c>
-      <c r="F209" s="51">
+      <c r="F209" s="49">
         <v>8150111</v>
       </c>
-      <c r="G209" s="77">
-        <v>1</v>
-      </c>
-      <c r="N209" s="51">
+      <c r="G209" s="71">
+        <v>1</v>
+      </c>
+      <c r="N209" s="49">
         <v>8150111</v>
       </c>
-      <c r="O209" s="79"/>
+      <c r="O209" s="72"/>
       <c r="P209" s="6">
         <v>194003</v>
       </c>
       <c r="Q209" s="6">
         <v>194004</v>
       </c>
-      <c r="R209" s="51">
+      <c r="R209" s="49">
         <v>8150111</v>
       </c>
-      <c r="S209" s="91" t="s">
+      <c r="S209" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="T209" s="92"/>
-      <c r="U209" s="92"/>
-      <c r="V209" s="92"/>
-      <c r="W209" s="92"/>
-      <c r="X209" s="92"/>
-      <c r="Y209" s="92"/>
-      <c r="Z209" s="92"/>
-      <c r="AA209" s="92"/>
-      <c r="AB209" s="92"/>
-      <c r="AC209" s="92"/>
-      <c r="AD209" s="92"/>
-      <c r="AE209" s="92"/>
-      <c r="AF209" s="92"/>
-      <c r="AG209" s="92"/>
-      <c r="AH209" s="92"/>
-      <c r="AI209" s="92"/>
-      <c r="AJ209" s="92"/>
-      <c r="AK209" s="92"/>
+      <c r="T209" s="91"/>
+      <c r="U209" s="91"/>
+      <c r="V209" s="91"/>
+      <c r="W209" s="91"/>
+      <c r="X209" s="91"/>
+      <c r="Y209" s="91"/>
+      <c r="Z209" s="91"/>
+      <c r="AA209" s="91"/>
+      <c r="AB209" s="91"/>
+      <c r="AC209" s="91"/>
+      <c r="AD209" s="91"/>
+      <c r="AE209" s="91"/>
+      <c r="AF209" s="91"/>
+      <c r="AG209" s="91"/>
+      <c r="AH209" s="91"/>
+      <c r="AI209" s="91"/>
+      <c r="AJ209" s="91"/>
+      <c r="AK209" s="91"/>
     </row>
     <row r="210" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A210" s="44">
+      <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="70" t="s">
+      <c r="B210" s="64" t="s">
         <v>289</v>
       </c>
       <c r="C210" s="6">
         <v>1</v>
       </c>
-      <c r="D210" s="78">
+      <c r="D210" s="72">
         <v>340141</v>
       </c>
-      <c r="E210" s="77">
+      <c r="E210" s="71">
         <v>35</v>
       </c>
-      <c r="F210" s="51">
+      <c r="F210" s="49">
         <v>8150112</v>
       </c>
-      <c r="G210" s="79">
-        <v>1</v>
-      </c>
-      <c r="H210" s="79"/>
-      <c r="I210" s="79"/>
-      <c r="M210" s="88"/>
-      <c r="N210" s="51">
+      <c r="G210" s="72">
+        <v>1</v>
+      </c>
+      <c r="H210" s="72"/>
+      <c r="I210" s="72"/>
+      <c r="M210" s="89"/>
+      <c r="N210" s="49">
         <v>8150112</v>
       </c>
-      <c r="O210" s="88"/>
+      <c r="O210" s="89"/>
       <c r="P210" s="6">
         <v>194003</v>
       </c>
       <c r="Q210" s="6">
         <v>194004</v>
       </c>
-      <c r="R210" s="51">
+      <c r="R210" s="49">
         <v>8150112</v>
       </c>
-      <c r="S210" s="92" t="s">
+      <c r="S210" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="T210" s="92"/>
-      <c r="U210" s="92"/>
-      <c r="V210" s="92"/>
-      <c r="W210" s="92"/>
-      <c r="X210" s="92"/>
-      <c r="Y210" s="92"/>
-      <c r="Z210" s="92"/>
-      <c r="AA210" s="92"/>
-      <c r="AB210" s="92"/>
-      <c r="AC210" s="92"/>
-      <c r="AD210" s="92"/>
-      <c r="AE210" s="92"/>
-      <c r="AF210" s="92"/>
-      <c r="AG210" s="92"/>
-      <c r="AH210" s="92"/>
-      <c r="AI210" s="92"/>
-      <c r="AJ210" s="92"/>
-      <c r="AK210" s="92"/>
+      <c r="T210" s="91"/>
+      <c r="U210" s="91"/>
+      <c r="V210" s="91"/>
+      <c r="W210" s="91"/>
+      <c r="X210" s="91"/>
+      <c r="Y210" s="91"/>
+      <c r="Z210" s="91"/>
+      <c r="AA210" s="91"/>
+      <c r="AB210" s="91"/>
+      <c r="AC210" s="91"/>
+      <c r="AD210" s="91"/>
+      <c r="AE210" s="91"/>
+      <c r="AF210" s="91"/>
+      <c r="AG210" s="91"/>
+      <c r="AH210" s="91"/>
+      <c r="AI210" s="91"/>
+      <c r="AJ210" s="91"/>
+      <c r="AK210" s="91"/>
     </row>
     <row r="211" s="6" customFormat="1" ht="17.25" spans="1:37">
-      <c r="A211" s="44">
+      <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="70" t="s">
+      <c r="B211" s="64" t="s">
         <v>291</v>
       </c>
       <c r="C211" s="6">
         <v>1</v>
       </c>
-      <c r="D211" s="78">
+      <c r="D211" s="72">
         <v>340141</v>
       </c>
-      <c r="E211" s="77">
+      <c r="E211" s="71">
         <v>35</v>
       </c>
-      <c r="F211" s="51">
+      <c r="F211" s="49">
         <v>8150113</v>
       </c>
-      <c r="G211" s="79">
-        <v>1</v>
-      </c>
-      <c r="H211" s="79"/>
-      <c r="I211" s="79"/>
-      <c r="M211" s="88"/>
-      <c r="N211" s="51">
+      <c r="G211" s="72">
+        <v>1</v>
+      </c>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="M211" s="89"/>
+      <c r="N211" s="49">
         <v>8150113</v>
       </c>
-      <c r="O211" s="88"/>
+      <c r="O211" s="89"/>
       <c r="P211" s="6">
         <v>194003</v>
       </c>
       <c r="Q211" s="6">
         <v>194004</v>
       </c>
-      <c r="R211" s="51">
+      <c r="R211" s="49">
         <v>8150113</v>
       </c>
-      <c r="S211" s="92" t="s">
+      <c r="S211" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="T211" s="92"/>
-      <c r="U211" s="92"/>
-      <c r="V211" s="92"/>
-      <c r="W211" s="92"/>
-      <c r="X211" s="92"/>
-      <c r="Y211" s="92"/>
-      <c r="Z211" s="92"/>
-      <c r="AA211" s="92"/>
-      <c r="AB211" s="92"/>
-      <c r="AC211" s="92"/>
-      <c r="AD211" s="92"/>
-      <c r="AE211" s="92"/>
-      <c r="AF211" s="92"/>
-      <c r="AG211" s="92"/>
-      <c r="AH211" s="92"/>
-      <c r="AI211" s="92"/>
-      <c r="AJ211" s="92"/>
-      <c r="AK211" s="92"/>
+      <c r="T211" s="91"/>
+      <c r="U211" s="91"/>
+      <c r="V211" s="91"/>
+      <c r="W211" s="91"/>
+      <c r="X211" s="91"/>
+      <c r="Y211" s="91"/>
+      <c r="Z211" s="91"/>
+      <c r="AA211" s="91"/>
+      <c r="AB211" s="91"/>
+      <c r="AC211" s="91"/>
+      <c r="AD211" s="91"/>
+      <c r="AE211" s="91"/>
+      <c r="AF211" s="91"/>
+      <c r="AG211" s="91"/>
+      <c r="AH211" s="91"/>
+      <c r="AI211" s="91"/>
+      <c r="AJ211" s="91"/>
+      <c r="AK211" s="91"/>
     </row>
-    <row r="212" ht="15" spans="1:19">
-      <c r="A212" s="44">
+    <row r="212" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="80" t="s">
+      <c r="B212" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="C212" s="6">
-        <v>1</v>
-      </c>
-      <c r="D212" s="78">
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="33">
         <v>340141</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="1">
         <v>50</v>
       </c>
-      <c r="F212" s="81" t="s">
+      <c r="F212" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="G212" s="79">
-        <v>1</v>
-      </c>
-      <c r="N212" s="81" t="s">
+      <c r="G212" s="33">
+        <v>1</v>
+      </c>
+      <c r="N212" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="P212" s="6">
+      <c r="O212" s="33"/>
+      <c r="P212" s="1">
         <v>194003</v>
       </c>
-      <c r="Q212" s="6">
+      <c r="Q212" s="1">
         <v>194004</v>
       </c>
-      <c r="R212" s="81" t="s">
+      <c r="R212" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="S212" s="92" t="s">
+      <c r="S212" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T212" s="38"/>
+      <c r="U212" s="38"/>
+      <c r="V212" s="38"/>
+      <c r="W212" s="38"/>
+      <c r="X212" s="38"/>
+      <c r="Y212" s="38"/>
+      <c r="Z212" s="38"/>
+      <c r="AA212" s="38"/>
+      <c r="AB212" s="38"/>
+      <c r="AC212" s="38"/>
+      <c r="AD212" s="38"/>
+      <c r="AE212" s="38"/>
+      <c r="AF212" s="38"/>
+      <c r="AG212" s="38"/>
+      <c r="AH212" s="38"/>
+      <c r="AI212" s="38"/>
+      <c r="AJ212" s="38"/>
+      <c r="AK212" s="38"/>
     </row>
-    <row r="213" ht="15" spans="1:19">
-      <c r="A213" s="44">
+    <row r="213" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" s="80" t="s">
+      <c r="B213" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="C213" s="6">
-        <v>1</v>
-      </c>
-      <c r="D213" s="78">
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="33">
         <v>340141</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="1">
         <v>50</v>
       </c>
-      <c r="F213" s="81" t="s">
+      <c r="F213" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="G213" s="79">
-        <v>1</v>
-      </c>
-      <c r="N213" s="81" t="s">
+      <c r="G213" s="33">
+        <v>1</v>
+      </c>
+      <c r="N213" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="P213" s="6">
+      <c r="O213" s="33"/>
+      <c r="P213" s="1">
         <v>194003</v>
       </c>
-      <c r="Q213" s="6">
+      <c r="Q213" s="1">
         <v>194004</v>
       </c>
-      <c r="R213" s="81" t="s">
+      <c r="R213" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="S213" s="92" t="s">
+      <c r="S213" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T213" s="38"/>
+      <c r="U213" s="38"/>
+      <c r="V213" s="38"/>
+      <c r="W213" s="38"/>
+      <c r="X213" s="38"/>
+      <c r="Y213" s="38"/>
+      <c r="Z213" s="38"/>
+      <c r="AA213" s="38"/>
+      <c r="AB213" s="38"/>
+      <c r="AC213" s="38"/>
+      <c r="AD213" s="38"/>
+      <c r="AE213" s="38"/>
+      <c r="AF213" s="38"/>
+      <c r="AG213" s="38"/>
+      <c r="AH213" s="38"/>
+      <c r="AI213" s="38"/>
+      <c r="AJ213" s="38"/>
+      <c r="AK213" s="38"/>
     </row>
-    <row r="214" ht="15" spans="1:19">
-      <c r="A214" s="44">
+    <row r="214" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="80" t="s">
+      <c r="B214" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="C214" s="6">
-        <v>1</v>
-      </c>
-      <c r="D214" s="78">
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="33">
         <v>340141</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="1">
         <v>50</v>
       </c>
-      <c r="F214" s="81" t="s">
+      <c r="F214" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="G214" s="79">
-        <v>1</v>
-      </c>
-      <c r="N214" s="81" t="s">
+      <c r="G214" s="33">
+        <v>1</v>
+      </c>
+      <c r="N214" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="P214" s="6">
+      <c r="O214" s="33"/>
+      <c r="P214" s="1">
         <v>194003</v>
       </c>
-      <c r="Q214" s="6">
+      <c r="Q214" s="1">
         <v>194004</v>
       </c>
-      <c r="R214" s="81" t="s">
+      <c r="R214" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="S214" s="92" t="s">
+      <c r="S214" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T214" s="38"/>
+      <c r="U214" s="38"/>
+      <c r="V214" s="38"/>
+      <c r="W214" s="38"/>
+      <c r="X214" s="38"/>
+      <c r="Y214" s="38"/>
+      <c r="Z214" s="38"/>
+      <c r="AA214" s="38"/>
+      <c r="AB214" s="38"/>
+      <c r="AC214" s="38"/>
+      <c r="AD214" s="38"/>
+      <c r="AE214" s="38"/>
+      <c r="AF214" s="38"/>
+      <c r="AG214" s="38"/>
+      <c r="AH214" s="38"/>
+      <c r="AI214" s="38"/>
+      <c r="AJ214" s="38"/>
+      <c r="AK214" s="38"/>
     </row>
-    <row r="215" ht="15" spans="1:19">
-      <c r="A215" s="44">
+    <row r="215" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="80" t="s">
+      <c r="B215" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="C215" s="6">
-        <v>1</v>
-      </c>
-      <c r="D215" s="78">
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="33">
         <v>340141</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="1">
         <v>50</v>
       </c>
-      <c r="F215" s="81" t="s">
+      <c r="F215" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="G215" s="79">
-        <v>1</v>
-      </c>
-      <c r="N215" s="81" t="s">
+      <c r="G215" s="33">
+        <v>1</v>
+      </c>
+      <c r="N215" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="P215" s="6">
+      <c r="O215" s="33"/>
+      <c r="P215" s="1">
         <v>194003</v>
       </c>
-      <c r="Q215" s="6">
+      <c r="Q215" s="1">
         <v>194004</v>
       </c>
-      <c r="R215" s="81" t="s">
+      <c r="R215" s="74" t="s">
         <v>299</v>
       </c>
-      <c r="S215" s="92" t="s">
+      <c r="S215" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T215" s="38"/>
+      <c r="U215" s="38"/>
+      <c r="V215" s="38"/>
+      <c r="W215" s="38"/>
+      <c r="X215" s="38"/>
+      <c r="Y215" s="38"/>
+      <c r="Z215" s="38"/>
+      <c r="AA215" s="38"/>
+      <c r="AB215" s="38"/>
+      <c r="AC215" s="38"/>
+      <c r="AD215" s="38"/>
+      <c r="AE215" s="38"/>
+      <c r="AF215" s="38"/>
+      <c r="AG215" s="38"/>
+      <c r="AH215" s="38"/>
+      <c r="AI215" s="38"/>
+      <c r="AJ215" s="38"/>
+      <c r="AK215" s="38"/>
     </row>
-    <row r="216" ht="15" spans="1:19">
-      <c r="A216" s="44">
+    <row r="216" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="80" t="s">
+      <c r="B216" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="C216" s="6">
-        <v>1</v>
-      </c>
-      <c r="D216" s="78">
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="33">
         <v>340141</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="1">
         <v>50</v>
       </c>
-      <c r="F216" s="81" t="s">
+      <c r="F216" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="G216" s="79">
-        <v>1</v>
-      </c>
-      <c r="N216" s="81" t="s">
+      <c r="G216" s="33">
+        <v>1</v>
+      </c>
+      <c r="N216" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="P216" s="6">
+      <c r="O216" s="33"/>
+      <c r="P216" s="1">
         <v>194003</v>
       </c>
-      <c r="Q216" s="6">
+      <c r="Q216" s="1">
         <v>194004</v>
       </c>
-      <c r="R216" s="81" t="s">
+      <c r="R216" s="74" t="s">
         <v>301</v>
       </c>
-      <c r="S216" s="92" t="s">
+      <c r="S216" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T216" s="38"/>
+      <c r="U216" s="38"/>
+      <c r="V216" s="38"/>
+      <c r="W216" s="38"/>
+      <c r="X216" s="38"/>
+      <c r="Y216" s="38"/>
+      <c r="Z216" s="38"/>
+      <c r="AA216" s="38"/>
+      <c r="AB216" s="38"/>
+      <c r="AC216" s="38"/>
+      <c r="AD216" s="38"/>
+      <c r="AE216" s="38"/>
+      <c r="AF216" s="38"/>
+      <c r="AG216" s="38"/>
+      <c r="AH216" s="38"/>
+      <c r="AI216" s="38"/>
+      <c r="AJ216" s="38"/>
+      <c r="AK216" s="38"/>
     </row>
-    <row r="217" ht="15" spans="1:19">
-      <c r="A217" s="44">
+    <row r="217" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="80" t="s">
+      <c r="B217" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="C217" s="6">
-        <v>1</v>
-      </c>
-      <c r="D217" s="78">
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="33">
         <v>340141</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="1">
         <v>50</v>
       </c>
-      <c r="F217" s="81" t="s">
+      <c r="F217" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="G217" s="79">
-        <v>1</v>
-      </c>
-      <c r="N217" s="81" t="s">
+      <c r="G217" s="33">
+        <v>1</v>
+      </c>
+      <c r="N217" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="P217" s="6">
+      <c r="O217" s="33"/>
+      <c r="P217" s="1">
         <v>194003</v>
       </c>
-      <c r="Q217" s="6">
+      <c r="Q217" s="1">
         <v>194004</v>
       </c>
-      <c r="R217" s="81" t="s">
+      <c r="R217" s="74" t="s">
         <v>303</v>
       </c>
-      <c r="S217" s="92" t="s">
+      <c r="S217" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T217" s="38"/>
+      <c r="U217" s="38"/>
+      <c r="V217" s="38"/>
+      <c r="W217" s="38"/>
+      <c r="X217" s="38"/>
+      <c r="Y217" s="38"/>
+      <c r="Z217" s="38"/>
+      <c r="AA217" s="38"/>
+      <c r="AB217" s="38"/>
+      <c r="AC217" s="38"/>
+      <c r="AD217" s="38"/>
+      <c r="AE217" s="38"/>
+      <c r="AF217" s="38"/>
+      <c r="AG217" s="38"/>
+      <c r="AH217" s="38"/>
+      <c r="AI217" s="38"/>
+      <c r="AJ217" s="38"/>
+      <c r="AK217" s="38"/>
     </row>
-    <row r="218" ht="17.25" spans="1:19">
-      <c r="A218" s="44">
+    <row r="218" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="82" t="s">
+      <c r="B218" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="C218" s="6">
-        <v>1</v>
-      </c>
-      <c r="D218" s="78">
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="33">
         <v>340141</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="1">
         <v>50</v>
       </c>
-      <c r="F218" s="81" t="s">
+      <c r="F218" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="G218" s="79">
-        <v>1</v>
-      </c>
-      <c r="N218" s="81" t="s">
+      <c r="G218" s="33">
+        <v>1</v>
+      </c>
+      <c r="N218" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="P218" s="6">
+      <c r="O218" s="33"/>
+      <c r="P218" s="1">
         <v>194003</v>
       </c>
-      <c r="Q218" s="6">
+      <c r="Q218" s="1">
         <v>194004</v>
       </c>
-      <c r="R218" s="81" t="s">
+      <c r="R218" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="S218" s="92" t="s">
+      <c r="S218" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T218" s="38"/>
+      <c r="U218" s="38"/>
+      <c r="V218" s="38"/>
+      <c r="W218" s="38"/>
+      <c r="X218" s="38"/>
+      <c r="Y218" s="38"/>
+      <c r="Z218" s="38"/>
+      <c r="AA218" s="38"/>
+      <c r="AB218" s="38"/>
+      <c r="AC218" s="38"/>
+      <c r="AD218" s="38"/>
+      <c r="AE218" s="38"/>
+      <c r="AF218" s="38"/>
+      <c r="AG218" s="38"/>
+      <c r="AH218" s="38"/>
+      <c r="AI218" s="38"/>
+      <c r="AJ218" s="38"/>
+      <c r="AK218" s="38"/>
     </row>
-    <row r="219" ht="15" spans="1:19">
-      <c r="A219" s="44">
+    <row r="219" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="83" t="s">
+      <c r="B219" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E219" s="1">
+        <v>50</v>
+      </c>
+      <c r="F219" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="C219" s="6">
-        <v>1</v>
-      </c>
-      <c r="D219" s="78">
+      <c r="G219" s="33">
+        <v>1</v>
+      </c>
+      <c r="N219" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="O219" s="33"/>
+      <c r="P219" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R219" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="S219" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T219" s="38"/>
+      <c r="U219" s="38"/>
+      <c r="V219" s="38"/>
+      <c r="W219" s="38"/>
+      <c r="X219" s="38"/>
+      <c r="Y219" s="38"/>
+      <c r="Z219" s="38"/>
+      <c r="AA219" s="38"/>
+      <c r="AB219" s="38"/>
+      <c r="AC219" s="38"/>
+      <c r="AD219" s="38"/>
+      <c r="AE219" s="38"/>
+      <c r="AF219" s="38"/>
+      <c r="AG219" s="38"/>
+      <c r="AH219" s="38"/>
+      <c r="AI219" s="38"/>
+      <c r="AJ219" s="38"/>
+      <c r="AK219" s="38"/>
+    </row>
+    <row r="220" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="33">
         <v>340141</v>
       </c>
-      <c r="E219">
+      <c r="E220" s="1">
         <v>50</v>
       </c>
-      <c r="F219" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="G219" s="79">
-        <v>1</v>
-      </c>
-      <c r="N219" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="P219" s="6">
+      <c r="F220" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="G220" s="33">
+        <v>1</v>
+      </c>
+      <c r="N220" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="O220" s="33"/>
+      <c r="P220" s="1">
         <v>194003</v>
       </c>
-      <c r="Q219" s="6">
+      <c r="Q220" s="1">
         <v>194004</v>
       </c>
-      <c r="R219" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="S219" s="92" t="s">
+      <c r="R220" s="74" t="s">
+        <v>307</v>
+      </c>
+      <c r="S220" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T220" s="38"/>
+      <c r="U220" s="38"/>
+      <c r="V220" s="38"/>
+      <c r="W220" s="38"/>
+      <c r="X220" s="38"/>
+      <c r="Y220" s="38"/>
+      <c r="Z220" s="38"/>
+      <c r="AA220" s="38"/>
+      <c r="AB220" s="38"/>
+      <c r="AC220" s="38"/>
+      <c r="AD220" s="38"/>
+      <c r="AE220" s="38"/>
+      <c r="AF220" s="38"/>
+      <c r="AG220" s="38"/>
+      <c r="AH220" s="38"/>
+      <c r="AI220" s="38"/>
+      <c r="AJ220" s="38"/>
+      <c r="AK220" s="38"/>
     </row>
-    <row r="220" ht="17.25" spans="1:19">
-      <c r="A220" s="44">
-        <v>219</v>
-      </c>
-      <c r="B220" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="C220" s="6">
-        <v>1</v>
-      </c>
-      <c r="D220" s="78">
+    <row r="221" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221" s="33">
         <v>340141</v>
       </c>
-      <c r="E220">
+      <c r="E221" s="1">
         <v>50</v>
       </c>
-      <c r="F220" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="G220" s="79">
-        <v>1</v>
-      </c>
-      <c r="N220" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="P220" s="6">
+      <c r="F221" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="G221" s="33">
+        <v>1</v>
+      </c>
+      <c r="N221" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="O221" s="33"/>
+      <c r="P221" s="1">
         <v>194003</v>
       </c>
-      <c r="Q220" s="6">
+      <c r="Q221" s="1">
         <v>194004</v>
       </c>
-      <c r="R220" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="S220" s="92" t="s">
+      <c r="R221" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="S221" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T221" s="38"/>
+      <c r="U221" s="38"/>
+      <c r="V221" s="38"/>
+      <c r="W221" s="38"/>
+      <c r="X221" s="38"/>
+      <c r="Y221" s="38"/>
+      <c r="Z221" s="38"/>
+      <c r="AA221" s="38"/>
+      <c r="AB221" s="38"/>
+      <c r="AC221" s="38"/>
+      <c r="AD221" s="38"/>
+      <c r="AE221" s="38"/>
+      <c r="AF221" s="38"/>
+      <c r="AG221" s="38"/>
+      <c r="AH221" s="38"/>
+      <c r="AI221" s="38"/>
+      <c r="AJ221" s="38"/>
+      <c r="AK221" s="38"/>
     </row>
-    <row r="221" ht="17.25" spans="1:19">
-      <c r="A221" s="44">
-        <v>220</v>
-      </c>
-      <c r="B221" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="C221" s="6">
-        <v>1</v>
-      </c>
-      <c r="D221" s="78">
+    <row r="222" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="33">
         <v>340141</v>
       </c>
-      <c r="E221">
+      <c r="E222" s="1">
         <v>50</v>
       </c>
-      <c r="F221" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="G221" s="79">
-        <v>1</v>
-      </c>
-      <c r="N221" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="P221" s="6">
+      <c r="F222" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="G222" s="33">
+        <v>1</v>
+      </c>
+      <c r="N222" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="O222" s="33"/>
+      <c r="P222" s="1">
         <v>194003</v>
       </c>
-      <c r="Q221" s="6">
+      <c r="Q222" s="1">
         <v>194004</v>
       </c>
-      <c r="R221" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="S221" s="92" t="s">
+      <c r="R222" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="S222" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T222" s="38"/>
+      <c r="U222" s="38"/>
+      <c r="V222" s="38"/>
+      <c r="W222" s="38"/>
+      <c r="X222" s="38"/>
+      <c r="Y222" s="38"/>
+      <c r="Z222" s="38"/>
+      <c r="AA222" s="38"/>
+      <c r="AB222" s="38"/>
+      <c r="AC222" s="38"/>
+      <c r="AD222" s="38"/>
+      <c r="AE222" s="38"/>
+      <c r="AF222" s="38"/>
+      <c r="AG222" s="38"/>
+      <c r="AH222" s="38"/>
+      <c r="AI222" s="38"/>
+      <c r="AJ222" s="38"/>
+      <c r="AK222" s="38"/>
     </row>
-    <row r="222" ht="15" spans="1:19">
-      <c r="A222" s="44">
-        <v>221</v>
-      </c>
-      <c r="B222" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="C222" s="6">
-        <v>1</v>
-      </c>
-      <c r="D222" s="78">
+    <row r="223" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="33">
         <v>340141</v>
       </c>
-      <c r="E222">
+      <c r="E223" s="1">
         <v>50</v>
       </c>
-      <c r="F222" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="G222" s="79">
-        <v>1</v>
-      </c>
-      <c r="N222" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="P222" s="6">
+      <c r="F223" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="G223" s="33">
+        <v>1</v>
+      </c>
+      <c r="N223" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="O223" s="33"/>
+      <c r="P223" s="1">
         <v>194003</v>
       </c>
-      <c r="Q222" s="6">
+      <c r="Q223" s="1">
         <v>194004</v>
       </c>
-      <c r="R222" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="S222" s="92" t="s">
+      <c r="R223" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="S223" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T223" s="38"/>
+      <c r="U223" s="38"/>
+      <c r="V223" s="38"/>
+      <c r="W223" s="38"/>
+      <c r="X223" s="38"/>
+      <c r="Y223" s="38"/>
+      <c r="Z223" s="38"/>
+      <c r="AA223" s="38"/>
+      <c r="AB223" s="38"/>
+      <c r="AC223" s="38"/>
+      <c r="AD223" s="38"/>
+      <c r="AE223" s="38"/>
+      <c r="AF223" s="38"/>
+      <c r="AG223" s="38"/>
+      <c r="AH223" s="38"/>
+      <c r="AI223" s="38"/>
+      <c r="AJ223" s="38"/>
+      <c r="AK223" s="38"/>
     </row>
-    <row r="223" ht="17.25" spans="1:19">
-      <c r="A223" s="44">
-        <v>222</v>
-      </c>
-      <c r="B223" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="C223" s="6">
-        <v>1</v>
-      </c>
-      <c r="D223" s="78">
+    <row r="224" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D224" s="33">
         <v>340141</v>
       </c>
-      <c r="E223">
+      <c r="E224" s="1">
         <v>50</v>
       </c>
-      <c r="F223" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="G223" s="79">
-        <v>1</v>
-      </c>
-      <c r="N223" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="P223" s="6">
+      <c r="F224" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="G224" s="33">
+        <v>1</v>
+      </c>
+      <c r="N224" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="O224" s="33"/>
+      <c r="P224" s="1">
         <v>194003</v>
       </c>
-      <c r="Q223" s="6">
+      <c r="Q224" s="1">
         <v>194004</v>
       </c>
-      <c r="R223" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="S223" s="92" t="s">
+      <c r="R224" s="74" t="s">
+        <v>315</v>
+      </c>
+      <c r="S224" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T224" s="38"/>
+      <c r="U224" s="38"/>
+      <c r="V224" s="38"/>
+      <c r="W224" s="38"/>
+      <c r="X224" s="38"/>
+      <c r="Y224" s="38"/>
+      <c r="Z224" s="38"/>
+      <c r="AA224" s="38"/>
+      <c r="AB224" s="38"/>
+      <c r="AC224" s="38"/>
+      <c r="AD224" s="38"/>
+      <c r="AE224" s="38"/>
+      <c r="AF224" s="38"/>
+      <c r="AG224" s="38"/>
+      <c r="AH224" s="38"/>
+      <c r="AI224" s="38"/>
+      <c r="AJ224" s="38"/>
+      <c r="AK224" s="38"/>
     </row>
-    <row r="224" ht="17.25" spans="1:19">
-      <c r="A224" s="44">
-        <v>223</v>
-      </c>
-      <c r="B224" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="C224" s="6">
-        <v>1</v>
-      </c>
-      <c r="D224" s="78">
+    <row r="225" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="33">
         <v>340141</v>
       </c>
-      <c r="E224">
+      <c r="E225" s="1">
         <v>50</v>
       </c>
-      <c r="F224" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="G224" s="79">
-        <v>1</v>
-      </c>
-      <c r="N224" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="P224" s="6">
+      <c r="F225" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="G225" s="33">
+        <v>1</v>
+      </c>
+      <c r="N225" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="O225" s="33"/>
+      <c r="P225" s="1">
         <v>194003</v>
       </c>
-      <c r="Q224" s="6">
+      <c r="Q225" s="1">
         <v>194004</v>
       </c>
-      <c r="R224" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="S224" s="92" t="s">
+      <c r="R225" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="S225" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T225" s="38"/>
+      <c r="U225" s="38"/>
+      <c r="V225" s="38"/>
+      <c r="W225" s="38"/>
+      <c r="X225" s="38"/>
+      <c r="Y225" s="38"/>
+      <c r="Z225" s="38"/>
+      <c r="AA225" s="38"/>
+      <c r="AB225" s="38"/>
+      <c r="AC225" s="38"/>
+      <c r="AD225" s="38"/>
+      <c r="AE225" s="38"/>
+      <c r="AF225" s="38"/>
+      <c r="AG225" s="38"/>
+      <c r="AH225" s="38"/>
+      <c r="AI225" s="38"/>
+      <c r="AJ225" s="38"/>
+      <c r="AK225" s="38"/>
     </row>
-    <row r="225" ht="15" spans="1:19">
-      <c r="A225" s="44">
-        <v>224</v>
-      </c>
-      <c r="B225" s="84" t="s">
-        <v>315</v>
-      </c>
-      <c r="C225" s="6">
-        <v>1</v>
-      </c>
-      <c r="D225" s="78">
+    <row r="226" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D226" s="33">
         <v>340141</v>
       </c>
-      <c r="E225">
+      <c r="E226" s="1">
         <v>50</v>
       </c>
-      <c r="F225" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="G225" s="79">
-        <v>1</v>
-      </c>
-      <c r="N225" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="P225" s="6">
+      <c r="F226" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="G226" s="33">
+        <v>1</v>
+      </c>
+      <c r="N226" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="O226" s="33"/>
+      <c r="P226" s="1">
         <v>194003</v>
       </c>
-      <c r="Q225" s="6">
+      <c r="Q226" s="1">
         <v>194004</v>
       </c>
-      <c r="R225" s="81" t="s">
-        <v>316</v>
-      </c>
-      <c r="S225" s="92" t="s">
+      <c r="R226" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="S226" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T226" s="38"/>
+      <c r="U226" s="38"/>
+      <c r="V226" s="38"/>
+      <c r="W226" s="38"/>
+      <c r="X226" s="38"/>
+      <c r="Y226" s="38"/>
+      <c r="Z226" s="38"/>
+      <c r="AA226" s="38"/>
+      <c r="AB226" s="38"/>
+      <c r="AC226" s="38"/>
+      <c r="AD226" s="38"/>
+      <c r="AE226" s="38"/>
+      <c r="AF226" s="38"/>
+      <c r="AG226" s="38"/>
+      <c r="AH226" s="38"/>
+      <c r="AI226" s="38"/>
+      <c r="AJ226" s="38"/>
+      <c r="AK226" s="38"/>
     </row>
-    <row r="226" ht="15" spans="1:19">
-      <c r="A226" s="44">
-        <v>225</v>
-      </c>
-      <c r="B226" s="84" t="s">
-        <v>317</v>
-      </c>
-      <c r="C226" s="6">
-        <v>1</v>
-      </c>
-      <c r="D226" s="78">
+    <row r="227" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="33">
         <v>340141</v>
       </c>
-      <c r="E226">
+      <c r="E227" s="1">
         <v>50</v>
       </c>
-      <c r="F226" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="G226" s="79">
-        <v>1</v>
-      </c>
-      <c r="N226" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="P226" s="6">
+      <c r="F227" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="G227" s="33">
+        <v>1</v>
+      </c>
+      <c r="N227" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="O227" s="33"/>
+      <c r="P227" s="1">
         <v>194003</v>
       </c>
-      <c r="Q226" s="6">
+      <c r="Q227" s="1">
         <v>194004</v>
       </c>
-      <c r="R226" s="81" t="s">
-        <v>318</v>
-      </c>
-      <c r="S226" s="92" t="s">
+      <c r="R227" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="S227" s="38" t="s">
         <v>39</v>
       </c>
+      <c r="T227" s="38"/>
+      <c r="U227" s="38"/>
+      <c r="V227" s="38"/>
+      <c r="W227" s="38"/>
+      <c r="X227" s="38"/>
+      <c r="Y227" s="38"/>
+      <c r="Z227" s="38"/>
+      <c r="AA227" s="38"/>
+      <c r="AB227" s="38"/>
+      <c r="AC227" s="38"/>
+      <c r="AD227" s="38"/>
+      <c r="AE227" s="38"/>
+      <c r="AF227" s="38"/>
+      <c r="AG227" s="38"/>
+      <c r="AH227" s="38"/>
+      <c r="AI227" s="38"/>
+      <c r="AJ227" s="38"/>
+      <c r="AK227" s="38"/>
     </row>
-    <row r="227" ht="15" spans="1:19">
-      <c r="A227" s="44">
-        <v>226</v>
-      </c>
-      <c r="B227" s="85" t="s">
-        <v>319</v>
-      </c>
-      <c r="C227" s="6">
-        <v>1</v>
-      </c>
-      <c r="D227" s="78">
-        <v>340141</v>
-      </c>
-      <c r="E227">
-        <v>50</v>
-      </c>
-      <c r="F227" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="G227" s="79">
-        <v>1</v>
-      </c>
-      <c r="N227" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="P227" s="6">
-        <v>194003</v>
-      </c>
-      <c r="Q227" s="6">
-        <v>194004</v>
-      </c>
-      <c r="R227" s="81" t="s">
-        <v>320</v>
-      </c>
-      <c r="S227" s="92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="228" ht="15" spans="1:19">
-      <c r="A228" s="44">
+    <row r="228" ht="17.25" spans="1:19">
+      <c r="A228" s="6">
         <v>227</v>
       </c>
-      <c r="B228" s="84" t="s">
-        <v>321</v>
+      <c r="B228" s="80" t="s">
+        <v>322</v>
       </c>
       <c r="C228" s="6">
         <v>1</v>
       </c>
-      <c r="D228" s="78">
+      <c r="D228" s="72">
         <v>340141</v>
       </c>
       <c r="E228">
         <v>50</v>
       </c>
       <c r="F228" s="81" t="s">
-        <v>322</v>
-      </c>
-      <c r="G228" s="79">
+        <v>323</v>
+      </c>
+      <c r="G228" s="72">
         <v>1</v>
       </c>
       <c r="N228" s="81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P228" s="6">
         <v>194003</v>
@@ -31656,36 +34052,36 @@
         <v>194004</v>
       </c>
       <c r="R228" s="81" t="s">
-        <v>322</v>
-      </c>
-      <c r="S228" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="S228" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="229" ht="15" spans="1:19">
-      <c r="A229" s="44">
+      <c r="A229" s="6">
         <v>228</v>
       </c>
-      <c r="B229" s="84" t="s">
-        <v>323</v>
+      <c r="B229" s="82" t="s">
+        <v>324</v>
       </c>
       <c r="C229" s="6">
         <v>1</v>
       </c>
-      <c r="D229" s="78">
+      <c r="D229" s="72">
         <v>340141</v>
       </c>
       <c r="E229">
         <v>50</v>
       </c>
       <c r="F229" s="81" t="s">
-        <v>324</v>
-      </c>
-      <c r="G229" s="79">
+        <v>325</v>
+      </c>
+      <c r="G229" s="72">
         <v>1</v>
       </c>
       <c r="N229" s="81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P229" s="6">
         <v>194003</v>
@@ -31694,36 +34090,36 @@
         <v>194004</v>
       </c>
       <c r="R229" s="81" t="s">
-        <v>324</v>
-      </c>
-      <c r="S229" s="92" t="s">
+        <v>325</v>
+      </c>
+      <c r="S229" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="230" ht="15" spans="1:19">
-      <c r="A230" s="44">
+      <c r="A230" s="6">
         <v>229</v>
       </c>
-      <c r="B230" s="84" t="s">
-        <v>325</v>
+      <c r="B230" s="82" t="s">
+        <v>326</v>
       </c>
       <c r="C230" s="6">
         <v>1</v>
       </c>
-      <c r="D230" s="78">
+      <c r="D230" s="72">
         <v>340141</v>
       </c>
       <c r="E230">
         <v>50</v>
       </c>
       <c r="F230" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="G230" s="79">
+        <v>327</v>
+      </c>
+      <c r="G230" s="72">
         <v>1</v>
       </c>
       <c r="N230" s="81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P230" s="6">
         <v>194003</v>
@@ -31732,36 +34128,36 @@
         <v>194004</v>
       </c>
       <c r="R230" s="81" t="s">
-        <v>326</v>
-      </c>
-      <c r="S230" s="92" t="s">
+        <v>327</v>
+      </c>
+      <c r="S230" s="91" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="231" ht="15" spans="1:19">
-      <c r="A231" s="44">
+      <c r="A231" s="6">
         <v>230</v>
       </c>
-      <c r="B231" s="84" t="s">
-        <v>327</v>
+      <c r="B231" s="82" t="s">
+        <v>328</v>
       </c>
       <c r="C231" s="6">
         <v>1</v>
       </c>
-      <c r="D231" s="78">
+      <c r="D231" s="72">
         <v>340141</v>
       </c>
       <c r="E231">
         <v>50</v>
       </c>
       <c r="F231" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="G231" s="79">
+        <v>329</v>
+      </c>
+      <c r="G231" s="72">
         <v>1</v>
       </c>
       <c r="N231" s="81" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P231" s="6">
         <v>194003</v>
@@ -31770,11 +34166,2899 @@
         <v>194004</v>
       </c>
       <c r="R231" s="81" t="s">
-        <v>328</v>
-      </c>
-      <c r="S231" s="92" t="s">
+        <v>329</v>
+      </c>
+      <c r="S231" s="91" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="232" ht="15" spans="1:19">
+      <c r="A232" s="6">
+        <v>231</v>
+      </c>
+      <c r="B232" s="83" t="s">
+        <v>330</v>
+      </c>
+      <c r="C232" s="6">
+        <v>1</v>
+      </c>
+      <c r="D232" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E232">
+        <v>50</v>
+      </c>
+      <c r="F232" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="G232" s="72">
+        <v>1</v>
+      </c>
+      <c r="N232" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="P232" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q232" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R232" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="S232" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" ht="15" spans="1:19">
+      <c r="A233" s="6">
+        <v>232</v>
+      </c>
+      <c r="B233" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C233" s="6">
+        <v>1</v>
+      </c>
+      <c r="D233" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E233">
+        <v>50</v>
+      </c>
+      <c r="F233" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="G233" s="72">
+        <v>1</v>
+      </c>
+      <c r="N233" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="P233" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q233" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R233" s="81" t="s">
+        <v>333</v>
+      </c>
+      <c r="S233" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="234" ht="17.25" spans="1:19">
+      <c r="A234" s="6">
+        <v>233</v>
+      </c>
+      <c r="B234" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="C234" s="6">
+        <v>1</v>
+      </c>
+      <c r="D234" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E234">
+        <v>50</v>
+      </c>
+      <c r="F234" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="G234" s="72">
+        <v>1</v>
+      </c>
+      <c r="N234" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="P234" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q234" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R234" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="S234" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" ht="15" spans="1:19">
+      <c r="A235" s="6">
+        <v>234</v>
+      </c>
+      <c r="B235" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="C235" s="6">
+        <v>1</v>
+      </c>
+      <c r="D235" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E235">
+        <v>50</v>
+      </c>
+      <c r="F235" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="G235" s="72">
+        <v>1</v>
+      </c>
+      <c r="N235" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="P235" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q235" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R235" s="81" t="s">
+        <v>335</v>
+      </c>
+      <c r="S235" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" ht="17.25" spans="1:19">
+      <c r="A236" s="6">
+        <v>235</v>
+      </c>
+      <c r="B236" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="C236" s="6">
+        <v>1</v>
+      </c>
+      <c r="D236" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E236">
+        <v>50</v>
+      </c>
+      <c r="F236" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="G236" s="72">
+        <v>1</v>
+      </c>
+      <c r="N236" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="P236" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q236" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R236" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="S236" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" ht="15" spans="1:19">
+      <c r="A237" s="6">
+        <v>236</v>
+      </c>
+      <c r="B237" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="C237" s="6">
+        <v>1</v>
+      </c>
+      <c r="D237" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E237">
+        <v>50</v>
+      </c>
+      <c r="F237" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="G237" s="72">
+        <v>1</v>
+      </c>
+      <c r="N237" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="P237" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q237" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R237" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="S237" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" ht="15" spans="1:19">
+      <c r="A238" s="6">
+        <v>237</v>
+      </c>
+      <c r="B238" s="83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C238" s="6">
+        <v>1</v>
+      </c>
+      <c r="D238" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E238">
+        <v>50</v>
+      </c>
+      <c r="F238" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="G238" s="72">
+        <v>1</v>
+      </c>
+      <c r="N238" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="P238" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q238" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R238" s="81" t="s">
+        <v>341</v>
+      </c>
+      <c r="S238" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" ht="15" spans="1:19">
+      <c r="A239" s="6">
+        <v>238</v>
+      </c>
+      <c r="B239" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C239" s="6">
+        <v>1</v>
+      </c>
+      <c r="D239" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E239">
+        <v>50</v>
+      </c>
+      <c r="F239" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="G239" s="72">
+        <v>1</v>
+      </c>
+      <c r="N239" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="P239" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q239" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R239" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="S239" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" ht="15" spans="1:19">
+      <c r="A240" s="6">
+        <v>239</v>
+      </c>
+      <c r="B240" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="C240" s="6">
+        <v>1</v>
+      </c>
+      <c r="D240" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E240">
+        <v>50</v>
+      </c>
+      <c r="F240" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="G240" s="72">
+        <v>1</v>
+      </c>
+      <c r="N240" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="P240" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q240" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R240" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="S240" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" ht="15" spans="1:19">
+      <c r="A241" s="6">
+        <v>240</v>
+      </c>
+      <c r="B241" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="C241" s="6">
+        <v>1</v>
+      </c>
+      <c r="D241" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E241">
+        <v>50</v>
+      </c>
+      <c r="F241" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="G241" s="72">
+        <v>1</v>
+      </c>
+      <c r="N241" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="P241" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q241" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R241" s="81" t="s">
+        <v>347</v>
+      </c>
+      <c r="S241" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" ht="15" spans="1:19">
+      <c r="A242" s="6">
+        <v>241</v>
+      </c>
+      <c r="B242" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C242" s="6">
+        <v>1</v>
+      </c>
+      <c r="D242" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E242">
+        <v>50</v>
+      </c>
+      <c r="F242" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="G242" s="72">
+        <v>1</v>
+      </c>
+      <c r="N242" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="P242" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q242" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R242" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="S242" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" ht="15" spans="1:19">
+      <c r="A243" s="6">
+        <v>242</v>
+      </c>
+      <c r="B243" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="C243" s="6">
+        <v>1</v>
+      </c>
+      <c r="D243" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E243">
+        <v>50</v>
+      </c>
+      <c r="F243" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="G243" s="72">
+        <v>1</v>
+      </c>
+      <c r="N243" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="P243" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q243" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R243" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="S243" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A244" s="6">
+        <v>243</v>
+      </c>
+      <c r="B244" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E244" s="1">
+        <v>50</v>
+      </c>
+      <c r="F244" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="G244" s="33">
+        <v>1</v>
+      </c>
+      <c r="N244" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="O244" s="33"/>
+      <c r="P244" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q244" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R244" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="S244" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T244" s="38"/>
+      <c r="U244" s="38"/>
+      <c r="V244" s="38"/>
+      <c r="W244" s="38"/>
+      <c r="X244" s="38"/>
+      <c r="Y244" s="38"/>
+      <c r="Z244" s="38"/>
+      <c r="AA244" s="38"/>
+      <c r="AB244" s="38"/>
+      <c r="AC244" s="38"/>
+      <c r="AD244" s="38"/>
+      <c r="AE244" s="38"/>
+      <c r="AF244" s="38"/>
+      <c r="AG244" s="38"/>
+      <c r="AH244" s="38"/>
+      <c r="AI244" s="38"/>
+      <c r="AJ244" s="38"/>
+      <c r="AK244" s="38"/>
+    </row>
+    <row r="245" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A245" s="6">
+        <v>244</v>
+      </c>
+      <c r="B245" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E245" s="1">
+        <v>50</v>
+      </c>
+      <c r="F245" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="G245" s="33">
+        <v>1</v>
+      </c>
+      <c r="N245" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="O245" s="33"/>
+      <c r="P245" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q245" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R245" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="S245" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T245" s="38"/>
+      <c r="U245" s="38"/>
+      <c r="V245" s="38"/>
+      <c r="W245" s="38"/>
+      <c r="X245" s="38"/>
+      <c r="Y245" s="38"/>
+      <c r="Z245" s="38"/>
+      <c r="AA245" s="38"/>
+      <c r="AB245" s="38"/>
+      <c r="AC245" s="38"/>
+      <c r="AD245" s="38"/>
+      <c r="AE245" s="38"/>
+      <c r="AF245" s="38"/>
+      <c r="AG245" s="38"/>
+      <c r="AH245" s="38"/>
+      <c r="AI245" s="38"/>
+      <c r="AJ245" s="38"/>
+      <c r="AK245" s="38"/>
+    </row>
+    <row r="246" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A246" s="6">
+        <v>245</v>
+      </c>
+      <c r="B246" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E246" s="1">
+        <v>50</v>
+      </c>
+      <c r="F246" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="G246" s="33">
+        <v>1</v>
+      </c>
+      <c r="N246" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="O246" s="33"/>
+      <c r="P246" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q246" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R246" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="S246" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T246" s="38"/>
+      <c r="U246" s="38"/>
+      <c r="V246" s="38"/>
+      <c r="W246" s="38"/>
+      <c r="X246" s="38"/>
+      <c r="Y246" s="38"/>
+      <c r="Z246" s="38"/>
+      <c r="AA246" s="38"/>
+      <c r="AB246" s="38"/>
+      <c r="AC246" s="38"/>
+      <c r="AD246" s="38"/>
+      <c r="AE246" s="38"/>
+      <c r="AF246" s="38"/>
+      <c r="AG246" s="38"/>
+      <c r="AH246" s="38"/>
+      <c r="AI246" s="38"/>
+      <c r="AJ246" s="38"/>
+      <c r="AK246" s="38"/>
+    </row>
+    <row r="247" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A247" s="6">
+        <v>246</v>
+      </c>
+      <c r="B247" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E247" s="1">
+        <v>50</v>
+      </c>
+      <c r="F247" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="G247" s="33">
+        <v>1</v>
+      </c>
+      <c r="N247" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="O247" s="33"/>
+      <c r="P247" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q247" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R247" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="S247" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T247" s="38"/>
+      <c r="U247" s="38"/>
+      <c r="V247" s="38"/>
+      <c r="W247" s="38"/>
+      <c r="X247" s="38"/>
+      <c r="Y247" s="38"/>
+      <c r="Z247" s="38"/>
+      <c r="AA247" s="38"/>
+      <c r="AB247" s="38"/>
+      <c r="AC247" s="38"/>
+      <c r="AD247" s="38"/>
+      <c r="AE247" s="38"/>
+      <c r="AF247" s="38"/>
+      <c r="AG247" s="38"/>
+      <c r="AH247" s="38"/>
+      <c r="AI247" s="38"/>
+      <c r="AJ247" s="38"/>
+      <c r="AK247" s="38"/>
+    </row>
+    <row r="248" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+      <c r="B248" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E248" s="1">
+        <v>50</v>
+      </c>
+      <c r="F248" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="G248" s="33">
+        <v>1</v>
+      </c>
+      <c r="N248" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="O248" s="33"/>
+      <c r="P248" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q248" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R248" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="S248" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T248" s="38"/>
+      <c r="U248" s="38"/>
+      <c r="V248" s="38"/>
+      <c r="W248" s="38"/>
+      <c r="X248" s="38"/>
+      <c r="Y248" s="38"/>
+      <c r="Z248" s="38"/>
+      <c r="AA248" s="38"/>
+      <c r="AB248" s="38"/>
+      <c r="AC248" s="38"/>
+      <c r="AD248" s="38"/>
+      <c r="AE248" s="38"/>
+      <c r="AF248" s="38"/>
+      <c r="AG248" s="38"/>
+      <c r="AH248" s="38"/>
+      <c r="AI248" s="38"/>
+      <c r="AJ248" s="38"/>
+      <c r="AK248" s="38"/>
+    </row>
+    <row r="249" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A249" s="6">
+        <v>248</v>
+      </c>
+      <c r="B249" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E249" s="1">
+        <v>50</v>
+      </c>
+      <c r="F249" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="G249" s="33">
+        <v>1</v>
+      </c>
+      <c r="N249" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="O249" s="33"/>
+      <c r="P249" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q249" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R249" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="S249" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T249" s="38"/>
+      <c r="U249" s="38"/>
+      <c r="V249" s="38"/>
+      <c r="W249" s="38"/>
+      <c r="X249" s="38"/>
+      <c r="Y249" s="38"/>
+      <c r="Z249" s="38"/>
+      <c r="AA249" s="38"/>
+      <c r="AB249" s="38"/>
+      <c r="AC249" s="38"/>
+      <c r="AD249" s="38"/>
+      <c r="AE249" s="38"/>
+      <c r="AF249" s="38"/>
+      <c r="AG249" s="38"/>
+      <c r="AH249" s="38"/>
+      <c r="AI249" s="38"/>
+      <c r="AJ249" s="38"/>
+      <c r="AK249" s="38"/>
+    </row>
+    <row r="250" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A250" s="6">
+        <v>249</v>
+      </c>
+      <c r="B250" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E250" s="1">
+        <v>50</v>
+      </c>
+      <c r="F250" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="G250" s="33">
+        <v>1</v>
+      </c>
+      <c r="N250" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="O250" s="33"/>
+      <c r="P250" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q250" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R250" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="S250" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T250" s="38"/>
+      <c r="U250" s="38"/>
+      <c r="V250" s="38"/>
+      <c r="W250" s="38"/>
+      <c r="X250" s="38"/>
+      <c r="Y250" s="38"/>
+      <c r="Z250" s="38"/>
+      <c r="AA250" s="38"/>
+      <c r="AB250" s="38"/>
+      <c r="AC250" s="38"/>
+      <c r="AD250" s="38"/>
+      <c r="AE250" s="38"/>
+      <c r="AF250" s="38"/>
+      <c r="AG250" s="38"/>
+      <c r="AH250" s="38"/>
+      <c r="AI250" s="38"/>
+      <c r="AJ250" s="38"/>
+      <c r="AK250" s="38"/>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A251" s="6">
+        <v>250</v>
+      </c>
+      <c r="B251" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="C251" s="1">
+        <v>1</v>
+      </c>
+      <c r="D251" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E251" s="1">
+        <v>50</v>
+      </c>
+      <c r="F251" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="G251" s="33">
+        <v>1</v>
+      </c>
+      <c r="N251" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="O251" s="33"/>
+      <c r="P251" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q251" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R251" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="S251" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T251" s="38"/>
+      <c r="U251" s="38"/>
+      <c r="V251" s="38"/>
+      <c r="W251" s="38"/>
+      <c r="X251" s="38"/>
+      <c r="Y251" s="38"/>
+      <c r="Z251" s="38"/>
+      <c r="AA251" s="38"/>
+      <c r="AB251" s="38"/>
+      <c r="AC251" s="38"/>
+      <c r="AD251" s="38"/>
+      <c r="AE251" s="38"/>
+      <c r="AF251" s="38"/>
+      <c r="AG251" s="38"/>
+      <c r="AH251" s="38"/>
+      <c r="AI251" s="38"/>
+      <c r="AJ251" s="38"/>
+      <c r="AK251" s="38"/>
+    </row>
+    <row r="252" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+      <c r="B252" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E252" s="1">
+        <v>50</v>
+      </c>
+      <c r="F252" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="G252" s="33">
+        <v>1</v>
+      </c>
+      <c r="N252" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="O252" s="33"/>
+      <c r="P252" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q252" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R252" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="S252" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T252" s="38"/>
+      <c r="U252" s="38"/>
+      <c r="V252" s="38"/>
+      <c r="W252" s="38"/>
+      <c r="X252" s="38"/>
+      <c r="Y252" s="38"/>
+      <c r="Z252" s="38"/>
+      <c r="AA252" s="38"/>
+      <c r="AB252" s="38"/>
+      <c r="AC252" s="38"/>
+      <c r="AD252" s="38"/>
+      <c r="AE252" s="38"/>
+      <c r="AF252" s="38"/>
+      <c r="AG252" s="38"/>
+      <c r="AH252" s="38"/>
+      <c r="AI252" s="38"/>
+      <c r="AJ252" s="38"/>
+      <c r="AK252" s="38"/>
+    </row>
+    <row r="253" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A253" s="6">
+        <v>252</v>
+      </c>
+      <c r="B253" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D253" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E253" s="1">
+        <v>50</v>
+      </c>
+      <c r="F253" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="G253" s="33">
+        <v>1</v>
+      </c>
+      <c r="N253" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="O253" s="33"/>
+      <c r="P253" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q253" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R253" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="S253" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T253" s="38"/>
+      <c r="U253" s="38"/>
+      <c r="V253" s="38"/>
+      <c r="W253" s="38"/>
+      <c r="X253" s="38"/>
+      <c r="Y253" s="38"/>
+      <c r="Z253" s="38"/>
+      <c r="AA253" s="38"/>
+      <c r="AB253" s="38"/>
+      <c r="AC253" s="38"/>
+      <c r="AD253" s="38"/>
+      <c r="AE253" s="38"/>
+      <c r="AF253" s="38"/>
+      <c r="AG253" s="38"/>
+      <c r="AH253" s="38"/>
+      <c r="AI253" s="38"/>
+      <c r="AJ253" s="38"/>
+      <c r="AK253" s="38"/>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A254" s="6">
+        <v>253</v>
+      </c>
+      <c r="B254" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D254" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E254" s="1">
+        <v>50</v>
+      </c>
+      <c r="F254" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="G254" s="33">
+        <v>1</v>
+      </c>
+      <c r="N254" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="O254" s="33"/>
+      <c r="P254" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q254" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R254" s="81" t="s">
+        <v>371</v>
+      </c>
+      <c r="S254" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T254" s="38"/>
+      <c r="U254" s="38"/>
+      <c r="V254" s="38"/>
+      <c r="W254" s="38"/>
+      <c r="X254" s="38"/>
+      <c r="Y254" s="38"/>
+      <c r="Z254" s="38"/>
+      <c r="AA254" s="38"/>
+      <c r="AB254" s="38"/>
+      <c r="AC254" s="38"/>
+      <c r="AD254" s="38"/>
+      <c r="AE254" s="38"/>
+      <c r="AF254" s="38"/>
+      <c r="AG254" s="38"/>
+      <c r="AH254" s="38"/>
+      <c r="AI254" s="38"/>
+      <c r="AJ254" s="38"/>
+      <c r="AK254" s="38"/>
+    </row>
+    <row r="255" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A255" s="6">
+        <v>254</v>
+      </c>
+      <c r="B255" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D255" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E255" s="1">
+        <v>50</v>
+      </c>
+      <c r="F255" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="G255" s="33">
+        <v>1</v>
+      </c>
+      <c r="N255" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="O255" s="33"/>
+      <c r="P255" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q255" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R255" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="S255" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T255" s="38"/>
+      <c r="U255" s="38"/>
+      <c r="V255" s="38"/>
+      <c r="W255" s="38"/>
+      <c r="X255" s="38"/>
+      <c r="Y255" s="38"/>
+      <c r="Z255" s="38"/>
+      <c r="AA255" s="38"/>
+      <c r="AB255" s="38"/>
+      <c r="AC255" s="38"/>
+      <c r="AD255" s="38"/>
+      <c r="AE255" s="38"/>
+      <c r="AF255" s="38"/>
+      <c r="AG255" s="38"/>
+      <c r="AH255" s="38"/>
+      <c r="AI255" s="38"/>
+      <c r="AJ255" s="38"/>
+      <c r="AK255" s="38"/>
+    </row>
+    <row r="256" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A256" s="6">
+        <v>255</v>
+      </c>
+      <c r="B256" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E256" s="1">
+        <v>50</v>
+      </c>
+      <c r="F256" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="G256" s="33">
+        <v>1</v>
+      </c>
+      <c r="N256" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="O256" s="33"/>
+      <c r="P256" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q256" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R256" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="S256" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T256" s="38"/>
+      <c r="U256" s="38"/>
+      <c r="V256" s="38"/>
+      <c r="W256" s="38"/>
+      <c r="X256" s="38"/>
+      <c r="Y256" s="38"/>
+      <c r="Z256" s="38"/>
+      <c r="AA256" s="38"/>
+      <c r="AB256" s="38"/>
+      <c r="AC256" s="38"/>
+      <c r="AD256" s="38"/>
+      <c r="AE256" s="38"/>
+      <c r="AF256" s="38"/>
+      <c r="AG256" s="38"/>
+      <c r="AH256" s="38"/>
+      <c r="AI256" s="38"/>
+      <c r="AJ256" s="38"/>
+      <c r="AK256" s="38"/>
+    </row>
+    <row r="257" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A257" s="6">
+        <v>256</v>
+      </c>
+      <c r="B257" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E257" s="1">
+        <v>50</v>
+      </c>
+      <c r="F257" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="G257" s="33">
+        <v>1</v>
+      </c>
+      <c r="N257" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="O257" s="33"/>
+      <c r="P257" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q257" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R257" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="S257" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T257" s="38"/>
+      <c r="U257" s="38"/>
+      <c r="V257" s="38"/>
+      <c r="W257" s="38"/>
+      <c r="X257" s="38"/>
+      <c r="Y257" s="38"/>
+      <c r="Z257" s="38"/>
+      <c r="AA257" s="38"/>
+      <c r="AB257" s="38"/>
+      <c r="AC257" s="38"/>
+      <c r="AD257" s="38"/>
+      <c r="AE257" s="38"/>
+      <c r="AF257" s="38"/>
+      <c r="AG257" s="38"/>
+      <c r="AH257" s="38"/>
+      <c r="AI257" s="38"/>
+      <c r="AJ257" s="38"/>
+      <c r="AK257" s="38"/>
+    </row>
+    <row r="258" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A258" s="6">
+        <v>257</v>
+      </c>
+      <c r="B258" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E258" s="1">
+        <v>50</v>
+      </c>
+      <c r="F258" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="G258" s="33">
+        <v>1</v>
+      </c>
+      <c r="N258" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="O258" s="33"/>
+      <c r="P258" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q258" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R258" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="S258" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T258" s="38"/>
+      <c r="U258" s="38"/>
+      <c r="V258" s="38"/>
+      <c r="W258" s="38"/>
+      <c r="X258" s="38"/>
+      <c r="Y258" s="38"/>
+      <c r="Z258" s="38"/>
+      <c r="AA258" s="38"/>
+      <c r="AB258" s="38"/>
+      <c r="AC258" s="38"/>
+      <c r="AD258" s="38"/>
+      <c r="AE258" s="38"/>
+      <c r="AF258" s="38"/>
+      <c r="AG258" s="38"/>
+      <c r="AH258" s="38"/>
+      <c r="AI258" s="38"/>
+      <c r="AJ258" s="38"/>
+      <c r="AK258" s="38"/>
+    </row>
+    <row r="259" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A259" s="6">
+        <v>258</v>
+      </c>
+      <c r="B259" s="83" t="s">
+        <v>380</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D259" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E259" s="1">
+        <v>50</v>
+      </c>
+      <c r="F259" s="81" t="s">
+        <v>381</v>
+      </c>
+      <c r="G259" s="33">
+        <v>1</v>
+      </c>
+      <c r="N259" s="81" t="s">
+        <v>381</v>
+      </c>
+      <c r="O259" s="33"/>
+      <c r="P259" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q259" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R259" s="81" t="s">
+        <v>381</v>
+      </c>
+      <c r="S259" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T259" s="38"/>
+      <c r="U259" s="38"/>
+      <c r="V259" s="38"/>
+      <c r="W259" s="38"/>
+      <c r="X259" s="38"/>
+      <c r="Y259" s="38"/>
+      <c r="Z259" s="38"/>
+      <c r="AA259" s="38"/>
+      <c r="AB259" s="38"/>
+      <c r="AC259" s="38"/>
+      <c r="AD259" s="38"/>
+      <c r="AE259" s="38"/>
+      <c r="AF259" s="38"/>
+      <c r="AG259" s="38"/>
+      <c r="AH259" s="38"/>
+      <c r="AI259" s="38"/>
+      <c r="AJ259" s="38"/>
+      <c r="AK259" s="38"/>
+    </row>
+    <row r="260" ht="17.25" spans="1:19">
+      <c r="A260" s="6">
+        <v>259</v>
+      </c>
+      <c r="B260" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="C260" s="6">
+        <v>1</v>
+      </c>
+      <c r="D260" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E260">
+        <v>50</v>
+      </c>
+      <c r="F260" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="G260" s="72">
+        <v>1</v>
+      </c>
+      <c r="N260" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="P260" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q260" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R260" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="S260" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" ht="15" spans="1:19">
+      <c r="A261" s="6">
+        <v>260</v>
+      </c>
+      <c r="B261" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C261" s="6">
+        <v>1</v>
+      </c>
+      <c r="D261" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E261">
+        <v>50</v>
+      </c>
+      <c r="F261" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="G261" s="72">
+        <v>1</v>
+      </c>
+      <c r="N261" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="P261" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q261" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R261" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="S261" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" ht="15" spans="1:19">
+      <c r="A262" s="6">
+        <v>261</v>
+      </c>
+      <c r="B262" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="C262" s="6">
+        <v>1</v>
+      </c>
+      <c r="D262" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E262">
+        <v>50</v>
+      </c>
+      <c r="F262" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="G262" s="72">
+        <v>1</v>
+      </c>
+      <c r="N262" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="P262" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q262" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R262" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="S262" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" ht="15" spans="1:19">
+      <c r="A263" s="6">
+        <v>262</v>
+      </c>
+      <c r="B263" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="C263" s="6">
+        <v>1</v>
+      </c>
+      <c r="D263" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E263">
+        <v>50</v>
+      </c>
+      <c r="F263" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="G263" s="72">
+        <v>1</v>
+      </c>
+      <c r="N263" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="P263" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q263" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R263" s="81" t="s">
+        <v>389</v>
+      </c>
+      <c r="S263" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="264" ht="15" spans="1:19">
+      <c r="A264" s="6">
+        <v>263</v>
+      </c>
+      <c r="B264" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C264" s="6">
+        <v>1</v>
+      </c>
+      <c r="D264" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E264">
+        <v>50</v>
+      </c>
+      <c r="F264" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="G264" s="72">
+        <v>1</v>
+      </c>
+      <c r="N264" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="P264" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q264" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R264" s="81" t="s">
+        <v>391</v>
+      </c>
+      <c r="S264" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="265" ht="15" spans="1:19">
+      <c r="A265" s="6">
+        <v>264</v>
+      </c>
+      <c r="B265" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C265" s="6">
+        <v>1</v>
+      </c>
+      <c r="D265" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E265">
+        <v>50</v>
+      </c>
+      <c r="F265" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="G265" s="72">
+        <v>1</v>
+      </c>
+      <c r="N265" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="P265" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q265" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R265" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="S265" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="266" ht="17.25" spans="1:19">
+      <c r="A266" s="6">
+        <v>265</v>
+      </c>
+      <c r="B266" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C266" s="6">
+        <v>1</v>
+      </c>
+      <c r="D266" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E266">
+        <v>50</v>
+      </c>
+      <c r="F266" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="G266" s="72">
+        <v>1</v>
+      </c>
+      <c r="N266" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="P266" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q266" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R266" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="S266" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="267" ht="15" spans="1:19">
+      <c r="A267" s="6">
+        <v>266</v>
+      </c>
+      <c r="B267" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="C267" s="6">
+        <v>1</v>
+      </c>
+      <c r="D267" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E267">
+        <v>50</v>
+      </c>
+      <c r="F267" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="G267" s="72">
+        <v>1</v>
+      </c>
+      <c r="N267" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="P267" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q267" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R267" s="81" t="s">
+        <v>395</v>
+      </c>
+      <c r="S267" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="268" ht="17.25" spans="1:19">
+      <c r="A268" s="6">
+        <v>267</v>
+      </c>
+      <c r="B268" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="C268" s="6">
+        <v>1</v>
+      </c>
+      <c r="D268" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E268">
+        <v>50</v>
+      </c>
+      <c r="F268" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="G268" s="72">
+        <v>1</v>
+      </c>
+      <c r="N268" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="P268" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q268" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R268" s="81" t="s">
+        <v>397</v>
+      </c>
+      <c r="S268" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="269" ht="15" spans="1:19">
+      <c r="A269" s="6">
+        <v>268</v>
+      </c>
+      <c r="B269" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="C269" s="6">
+        <v>1</v>
+      </c>
+      <c r="D269" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E269">
+        <v>50</v>
+      </c>
+      <c r="F269" s="81" t="s">
+        <v>399</v>
+      </c>
+      <c r="G269" s="72">
+        <v>1</v>
+      </c>
+      <c r="N269" s="81" t="s">
+        <v>399</v>
+      </c>
+      <c r="P269" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q269" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R269" s="81" t="s">
+        <v>399</v>
+      </c>
+      <c r="S269" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="270" ht="15" spans="1:19">
+      <c r="A270" s="6">
+        <v>269</v>
+      </c>
+      <c r="B270" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="C270" s="6">
+        <v>1</v>
+      </c>
+      <c r="D270" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E270">
+        <v>50</v>
+      </c>
+      <c r="F270" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="G270" s="72">
+        <v>1</v>
+      </c>
+      <c r="N270" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="P270" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q270" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R270" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="S270" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="271" ht="15" spans="1:19">
+      <c r="A271" s="6">
+        <v>270</v>
+      </c>
+      <c r="B271" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="C271" s="6">
+        <v>1</v>
+      </c>
+      <c r="D271" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E271">
+        <v>50</v>
+      </c>
+      <c r="F271" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="G271" s="72">
+        <v>1</v>
+      </c>
+      <c r="N271" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="P271" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q271" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R271" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="S271" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="272" ht="15" spans="1:19">
+      <c r="A272" s="6">
+        <v>271</v>
+      </c>
+      <c r="B272" s="83" t="s">
+        <v>404</v>
+      </c>
+      <c r="C272" s="6">
+        <v>1</v>
+      </c>
+      <c r="D272" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E272">
+        <v>50</v>
+      </c>
+      <c r="F272" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="G272" s="72">
+        <v>1</v>
+      </c>
+      <c r="N272" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="P272" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q272" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R272" s="81" t="s">
+        <v>405</v>
+      </c>
+      <c r="S272" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" ht="15" spans="1:19">
+      <c r="A273" s="6">
+        <v>272</v>
+      </c>
+      <c r="B273" s="83" t="s">
+        <v>406</v>
+      </c>
+      <c r="C273" s="6">
+        <v>1</v>
+      </c>
+      <c r="D273" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E273">
+        <v>50</v>
+      </c>
+      <c r="F273" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="G273" s="72">
+        <v>1</v>
+      </c>
+      <c r="N273" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="P273" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q273" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R273" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="S273" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274" ht="15" spans="1:19">
+      <c r="A274" s="6">
+        <v>273</v>
+      </c>
+      <c r="B274" s="83" t="s">
+        <v>408</v>
+      </c>
+      <c r="C274" s="6">
+        <v>1</v>
+      </c>
+      <c r="D274" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E274">
+        <v>50</v>
+      </c>
+      <c r="F274" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="G274" s="72">
+        <v>1</v>
+      </c>
+      <c r="N274" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="P274" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q274" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R274" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="S274" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" ht="15" spans="1:19">
+      <c r="A275" s="6">
+        <v>274</v>
+      </c>
+      <c r="B275" s="83" t="s">
+        <v>410</v>
+      </c>
+      <c r="C275" s="6">
+        <v>1</v>
+      </c>
+      <c r="D275" s="72">
+        <v>340141</v>
+      </c>
+      <c r="E275">
+        <v>50</v>
+      </c>
+      <c r="F275" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="G275" s="72">
+        <v>1</v>
+      </c>
+      <c r="N275" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="P275" s="6">
+        <v>194003</v>
+      </c>
+      <c r="Q275" s="6">
+        <v>194004</v>
+      </c>
+      <c r="R275" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="S275" s="91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A276" s="6">
+        <v>275</v>
+      </c>
+      <c r="B276" s="80" t="s">
+        <v>412</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D276" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E276" s="1">
+        <v>50</v>
+      </c>
+      <c r="F276" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="G276" s="33">
+        <v>1</v>
+      </c>
+      <c r="N276" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="O276" s="33"/>
+      <c r="P276" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q276" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R276" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="S276" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T276" s="38"/>
+      <c r="U276" s="38"/>
+      <c r="V276" s="38"/>
+      <c r="W276" s="38"/>
+      <c r="X276" s="38"/>
+      <c r="Y276" s="38"/>
+      <c r="Z276" s="38"/>
+      <c r="AA276" s="38"/>
+      <c r="AB276" s="38"/>
+      <c r="AC276" s="38"/>
+      <c r="AD276" s="38"/>
+      <c r="AE276" s="38"/>
+      <c r="AF276" s="38"/>
+      <c r="AG276" s="38"/>
+      <c r="AH276" s="38"/>
+      <c r="AI276" s="38"/>
+      <c r="AJ276" s="38"/>
+      <c r="AK276" s="38"/>
+    </row>
+    <row r="277" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A277" s="6">
+        <v>276</v>
+      </c>
+      <c r="B277" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D277" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E277" s="1">
+        <v>50</v>
+      </c>
+      <c r="F277" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="G277" s="33">
+        <v>1</v>
+      </c>
+      <c r="N277" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="O277" s="33"/>
+      <c r="P277" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q277" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R277" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="S277" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T277" s="38"/>
+      <c r="U277" s="38"/>
+      <c r="V277" s="38"/>
+      <c r="W277" s="38"/>
+      <c r="X277" s="38"/>
+      <c r="Y277" s="38"/>
+      <c r="Z277" s="38"/>
+      <c r="AA277" s="38"/>
+      <c r="AB277" s="38"/>
+      <c r="AC277" s="38"/>
+      <c r="AD277" s="38"/>
+      <c r="AE277" s="38"/>
+      <c r="AF277" s="38"/>
+      <c r="AG277" s="38"/>
+      <c r="AH277" s="38"/>
+      <c r="AI277" s="38"/>
+      <c r="AJ277" s="38"/>
+      <c r="AK277" s="38"/>
+    </row>
+    <row r="278" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A278" s="6">
+        <v>277</v>
+      </c>
+      <c r="B278" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D278" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E278" s="1">
+        <v>50</v>
+      </c>
+      <c r="F278" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="G278" s="33">
+        <v>1</v>
+      </c>
+      <c r="N278" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="O278" s="33"/>
+      <c r="P278" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q278" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R278" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="S278" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T278" s="38"/>
+      <c r="U278" s="38"/>
+      <c r="V278" s="38"/>
+      <c r="W278" s="38"/>
+      <c r="X278" s="38"/>
+      <c r="Y278" s="38"/>
+      <c r="Z278" s="38"/>
+      <c r="AA278" s="38"/>
+      <c r="AB278" s="38"/>
+      <c r="AC278" s="38"/>
+      <c r="AD278" s="38"/>
+      <c r="AE278" s="38"/>
+      <c r="AF278" s="38"/>
+      <c r="AG278" s="38"/>
+      <c r="AH278" s="38"/>
+      <c r="AI278" s="38"/>
+      <c r="AJ278" s="38"/>
+      <c r="AK278" s="38"/>
+    </row>
+    <row r="279" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A279" s="6">
+        <v>278</v>
+      </c>
+      <c r="B279" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D279" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E279" s="1">
+        <v>50</v>
+      </c>
+      <c r="F279" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="G279" s="33">
+        <v>1</v>
+      </c>
+      <c r="N279" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="O279" s="33"/>
+      <c r="P279" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q279" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R279" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="S279" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T279" s="38"/>
+      <c r="U279" s="38"/>
+      <c r="V279" s="38"/>
+      <c r="W279" s="38"/>
+      <c r="X279" s="38"/>
+      <c r="Y279" s="38"/>
+      <c r="Z279" s="38"/>
+      <c r="AA279" s="38"/>
+      <c r="AB279" s="38"/>
+      <c r="AC279" s="38"/>
+      <c r="AD279" s="38"/>
+      <c r="AE279" s="38"/>
+      <c r="AF279" s="38"/>
+      <c r="AG279" s="38"/>
+      <c r="AH279" s="38"/>
+      <c r="AI279" s="38"/>
+      <c r="AJ279" s="38"/>
+      <c r="AK279" s="38"/>
+    </row>
+    <row r="280" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A280" s="6">
+        <v>279</v>
+      </c>
+      <c r="B280" s="83" t="s">
+        <v>420</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E280" s="1">
+        <v>50</v>
+      </c>
+      <c r="F280" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="G280" s="33">
+        <v>1</v>
+      </c>
+      <c r="N280" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="O280" s="33"/>
+      <c r="P280" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q280" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R280" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="S280" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T280" s="38"/>
+      <c r="U280" s="38"/>
+      <c r="V280" s="38"/>
+      <c r="W280" s="38"/>
+      <c r="X280" s="38"/>
+      <c r="Y280" s="38"/>
+      <c r="Z280" s="38"/>
+      <c r="AA280" s="38"/>
+      <c r="AB280" s="38"/>
+      <c r="AC280" s="38"/>
+      <c r="AD280" s="38"/>
+      <c r="AE280" s="38"/>
+      <c r="AF280" s="38"/>
+      <c r="AG280" s="38"/>
+      <c r="AH280" s="38"/>
+      <c r="AI280" s="38"/>
+      <c r="AJ280" s="38"/>
+      <c r="AK280" s="38"/>
+    </row>
+    <row r="281" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A281" s="6">
+        <v>280</v>
+      </c>
+      <c r="B281" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1</v>
+      </c>
+      <c r="D281" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E281" s="1">
+        <v>50</v>
+      </c>
+      <c r="F281" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="G281" s="33">
+        <v>1</v>
+      </c>
+      <c r="N281" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="O281" s="33"/>
+      <c r="P281" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q281" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R281" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="S281" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T281" s="38"/>
+      <c r="U281" s="38"/>
+      <c r="V281" s="38"/>
+      <c r="W281" s="38"/>
+      <c r="X281" s="38"/>
+      <c r="Y281" s="38"/>
+      <c r="Z281" s="38"/>
+      <c r="AA281" s="38"/>
+      <c r="AB281" s="38"/>
+      <c r="AC281" s="38"/>
+      <c r="AD281" s="38"/>
+      <c r="AE281" s="38"/>
+      <c r="AF281" s="38"/>
+      <c r="AG281" s="38"/>
+      <c r="AH281" s="38"/>
+      <c r="AI281" s="38"/>
+      <c r="AJ281" s="38"/>
+      <c r="AK281" s="38"/>
+    </row>
+    <row r="282" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A282" s="6">
+        <v>281</v>
+      </c>
+      <c r="B282" s="84" t="s">
+        <v>414</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D282" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E282" s="1">
+        <v>50</v>
+      </c>
+      <c r="F282" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="G282" s="33">
+        <v>1</v>
+      </c>
+      <c r="N282" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="O282" s="33"/>
+      <c r="P282" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q282" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R282" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="S282" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T282" s="38"/>
+      <c r="U282" s="38"/>
+      <c r="V282" s="38"/>
+      <c r="W282" s="38"/>
+      <c r="X282" s="38"/>
+      <c r="Y282" s="38"/>
+      <c r="Z282" s="38"/>
+      <c r="AA282" s="38"/>
+      <c r="AB282" s="38"/>
+      <c r="AC282" s="38"/>
+      <c r="AD282" s="38"/>
+      <c r="AE282" s="38"/>
+      <c r="AF282" s="38"/>
+      <c r="AG282" s="38"/>
+      <c r="AH282" s="38"/>
+      <c r="AI282" s="38"/>
+      <c r="AJ282" s="38"/>
+      <c r="AK282" s="38"/>
+    </row>
+    <row r="283" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A283" s="6">
+        <v>282</v>
+      </c>
+      <c r="B283" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1</v>
+      </c>
+      <c r="D283" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E283" s="1">
+        <v>50</v>
+      </c>
+      <c r="F283" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="G283" s="33">
+        <v>1</v>
+      </c>
+      <c r="N283" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="O283" s="33"/>
+      <c r="P283" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q283" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R283" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="S283" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T283" s="38"/>
+      <c r="U283" s="38"/>
+      <c r="V283" s="38"/>
+      <c r="W283" s="38"/>
+      <c r="X283" s="38"/>
+      <c r="Y283" s="38"/>
+      <c r="Z283" s="38"/>
+      <c r="AA283" s="38"/>
+      <c r="AB283" s="38"/>
+      <c r="AC283" s="38"/>
+      <c r="AD283" s="38"/>
+      <c r="AE283" s="38"/>
+      <c r="AF283" s="38"/>
+      <c r="AG283" s="38"/>
+      <c r="AH283" s="38"/>
+      <c r="AI283" s="38"/>
+      <c r="AJ283" s="38"/>
+      <c r="AK283" s="38"/>
+    </row>
+    <row r="284" s="1" customFormat="1" ht="17.25" spans="1:37">
+      <c r="A284" s="6">
+        <v>283</v>
+      </c>
+      <c r="B284" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+      <c r="D284" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E284" s="1">
+        <v>50</v>
+      </c>
+      <c r="F284" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="G284" s="33">
+        <v>1</v>
+      </c>
+      <c r="N284" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="O284" s="33"/>
+      <c r="P284" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q284" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R284" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="S284" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T284" s="38"/>
+      <c r="U284" s="38"/>
+      <c r="V284" s="38"/>
+      <c r="W284" s="38"/>
+      <c r="X284" s="38"/>
+      <c r="Y284" s="38"/>
+      <c r="Z284" s="38"/>
+      <c r="AA284" s="38"/>
+      <c r="AB284" s="38"/>
+      <c r="AC284" s="38"/>
+      <c r="AD284" s="38"/>
+      <c r="AE284" s="38"/>
+      <c r="AF284" s="38"/>
+      <c r="AG284" s="38"/>
+      <c r="AH284" s="38"/>
+      <c r="AI284" s="38"/>
+      <c r="AJ284" s="38"/>
+      <c r="AK284" s="38"/>
+    </row>
+    <row r="285" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A285" s="6">
+        <v>284</v>
+      </c>
+      <c r="B285" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D285" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E285" s="1">
+        <v>50</v>
+      </c>
+      <c r="F285" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="G285" s="33">
+        <v>1</v>
+      </c>
+      <c r="N285" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="O285" s="33"/>
+      <c r="P285" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q285" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R285" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="S285" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T285" s="38"/>
+      <c r="U285" s="38"/>
+      <c r="V285" s="38"/>
+      <c r="W285" s="38"/>
+      <c r="X285" s="38"/>
+      <c r="Y285" s="38"/>
+      <c r="Z285" s="38"/>
+      <c r="AA285" s="38"/>
+      <c r="AB285" s="38"/>
+      <c r="AC285" s="38"/>
+      <c r="AD285" s="38"/>
+      <c r="AE285" s="38"/>
+      <c r="AF285" s="38"/>
+      <c r="AG285" s="38"/>
+      <c r="AH285" s="38"/>
+      <c r="AI285" s="38"/>
+      <c r="AJ285" s="38"/>
+      <c r="AK285" s="38"/>
+    </row>
+    <row r="286" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A286" s="6">
+        <v>285</v>
+      </c>
+      <c r="B286" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1</v>
+      </c>
+      <c r="D286" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E286" s="1">
+        <v>50</v>
+      </c>
+      <c r="F286" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="G286" s="33">
+        <v>1</v>
+      </c>
+      <c r="N286" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="O286" s="33"/>
+      <c r="P286" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q286" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R286" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="S286" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T286" s="38"/>
+      <c r="U286" s="38"/>
+      <c r="V286" s="38"/>
+      <c r="W286" s="38"/>
+      <c r="X286" s="38"/>
+      <c r="Y286" s="38"/>
+      <c r="Z286" s="38"/>
+      <c r="AA286" s="38"/>
+      <c r="AB286" s="38"/>
+      <c r="AC286" s="38"/>
+      <c r="AD286" s="38"/>
+      <c r="AE286" s="38"/>
+      <c r="AF286" s="38"/>
+      <c r="AG286" s="38"/>
+      <c r="AH286" s="38"/>
+      <c r="AI286" s="38"/>
+      <c r="AJ286" s="38"/>
+      <c r="AK286" s="38"/>
+    </row>
+    <row r="287" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A287" s="6">
+        <v>286</v>
+      </c>
+      <c r="B287" s="86" t="s">
+        <v>432</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D287" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E287" s="1">
+        <v>50</v>
+      </c>
+      <c r="F287" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="G287" s="33">
+        <v>1</v>
+      </c>
+      <c r="N287" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="O287" s="33"/>
+      <c r="P287" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q287" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R287" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="S287" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T287" s="38"/>
+      <c r="U287" s="38"/>
+      <c r="V287" s="38"/>
+      <c r="W287" s="38"/>
+      <c r="X287" s="38"/>
+      <c r="Y287" s="38"/>
+      <c r="Z287" s="38"/>
+      <c r="AA287" s="38"/>
+      <c r="AB287" s="38"/>
+      <c r="AC287" s="38"/>
+      <c r="AD287" s="38"/>
+      <c r="AE287" s="38"/>
+      <c r="AF287" s="38"/>
+      <c r="AG287" s="38"/>
+      <c r="AH287" s="38"/>
+      <c r="AI287" s="38"/>
+      <c r="AJ287" s="38"/>
+      <c r="AK287" s="38"/>
+    </row>
+    <row r="288" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A288" s="6">
+        <v>287</v>
+      </c>
+      <c r="B288" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D288" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E288" s="1">
+        <v>50</v>
+      </c>
+      <c r="F288" s="81" t="s">
+        <v>435</v>
+      </c>
+      <c r="G288" s="33">
+        <v>1</v>
+      </c>
+      <c r="N288" s="81" t="s">
+        <v>435</v>
+      </c>
+      <c r="O288" s="33"/>
+      <c r="P288" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q288" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R288" s="81" t="s">
+        <v>435</v>
+      </c>
+      <c r="S288" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T288" s="38"/>
+      <c r="U288" s="38"/>
+      <c r="V288" s="38"/>
+      <c r="W288" s="38"/>
+      <c r="X288" s="38"/>
+      <c r="Y288" s="38"/>
+      <c r="Z288" s="38"/>
+      <c r="AA288" s="38"/>
+      <c r="AB288" s="38"/>
+      <c r="AC288" s="38"/>
+      <c r="AD288" s="38"/>
+      <c r="AE288" s="38"/>
+      <c r="AF288" s="38"/>
+      <c r="AG288" s="38"/>
+      <c r="AH288" s="38"/>
+      <c r="AI288" s="38"/>
+      <c r="AJ288" s="38"/>
+      <c r="AK288" s="38"/>
+    </row>
+    <row r="289" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A289" s="6">
+        <v>288</v>
+      </c>
+      <c r="B289" s="83" t="s">
+        <v>436</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1</v>
+      </c>
+      <c r="D289" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E289" s="1">
+        <v>50</v>
+      </c>
+      <c r="F289" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="G289" s="33">
+        <v>1</v>
+      </c>
+      <c r="N289" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="O289" s="33"/>
+      <c r="P289" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q289" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R289" s="81" t="s">
+        <v>437</v>
+      </c>
+      <c r="S289" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T289" s="38"/>
+      <c r="U289" s="38"/>
+      <c r="V289" s="38"/>
+      <c r="W289" s="38"/>
+      <c r="X289" s="38"/>
+      <c r="Y289" s="38"/>
+      <c r="Z289" s="38"/>
+      <c r="AA289" s="38"/>
+      <c r="AB289" s="38"/>
+      <c r="AC289" s="38"/>
+      <c r="AD289" s="38"/>
+      <c r="AE289" s="38"/>
+      <c r="AF289" s="38"/>
+      <c r="AG289" s="38"/>
+      <c r="AH289" s="38"/>
+      <c r="AI289" s="38"/>
+      <c r="AJ289" s="38"/>
+      <c r="AK289" s="38"/>
+    </row>
+    <row r="290" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A290" s="6">
+        <v>289</v>
+      </c>
+      <c r="B290" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1</v>
+      </c>
+      <c r="D290" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E290" s="1">
+        <v>50</v>
+      </c>
+      <c r="F290" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="G290" s="33">
+        <v>1</v>
+      </c>
+      <c r="N290" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="O290" s="33"/>
+      <c r="P290" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q290" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R290" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="S290" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T290" s="38"/>
+      <c r="U290" s="38"/>
+      <c r="V290" s="38"/>
+      <c r="W290" s="38"/>
+      <c r="X290" s="38"/>
+      <c r="Y290" s="38"/>
+      <c r="Z290" s="38"/>
+      <c r="AA290" s="38"/>
+      <c r="AB290" s="38"/>
+      <c r="AC290" s="38"/>
+      <c r="AD290" s="38"/>
+      <c r="AE290" s="38"/>
+      <c r="AF290" s="38"/>
+      <c r="AG290" s="38"/>
+      <c r="AH290" s="38"/>
+      <c r="AI290" s="38"/>
+      <c r="AJ290" s="38"/>
+      <c r="AK290" s="38"/>
+    </row>
+    <row r="291" s="1" customFormat="1" ht="15" spans="1:37">
+      <c r="A291" s="6">
+        <v>290</v>
+      </c>
+      <c r="B291" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="C291" s="1">
+        <v>1</v>
+      </c>
+      <c r="D291" s="33">
+        <v>340141</v>
+      </c>
+      <c r="E291" s="1">
+        <v>50</v>
+      </c>
+      <c r="F291" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="G291" s="33">
+        <v>1</v>
+      </c>
+      <c r="N291" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="O291" s="33"/>
+      <c r="P291" s="1">
+        <v>194003</v>
+      </c>
+      <c r="Q291" s="1">
+        <v>194004</v>
+      </c>
+      <c r="R291" s="81" t="s">
+        <v>441</v>
+      </c>
+      <c r="S291" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="T291" s="38"/>
+      <c r="U291" s="38"/>
+      <c r="V291" s="38"/>
+      <c r="W291" s="38"/>
+      <c r="X291" s="38"/>
+      <c r="Y291" s="38"/>
+      <c r="Z291" s="38"/>
+      <c r="AA291" s="38"/>
+      <c r="AB291" s="38"/>
+      <c r="AC291" s="38"/>
+      <c r="AD291" s="38"/>
+      <c r="AE291" s="38"/>
+      <c r="AF291" s="38"/>
+      <c r="AG291" s="38"/>
+      <c r="AH291" s="38"/>
+      <c r="AI291" s="38"/>
+      <c r="AJ291" s="38"/>
+      <c r="AK291" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
